--- a/evaluation/mini-batch/tuning.xlsx
+++ b/evaluation/mini-batch/tuning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falco\Desktop\learning\evaluation\mini-batch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falco\Desktop\NeuralNetwork-library\evaluation\mini-batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780DE612-C239-4437-A29B-C4AC3B7A723A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EC5A2A-0F2C-4579-9FC9-6F260D77D2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,25 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -96,187 +83,181 @@
     <t>cross_entropy_softmax</t>
   </si>
   <si>
-    <t>78.53</t>
-  </si>
-  <si>
-    <t>99.31</t>
-  </si>
-  <si>
-    <t>96.59</t>
-  </si>
-  <si>
-    <t>394.07</t>
-  </si>
-  <si>
-    <t>346.30</t>
-  </si>
-  <si>
-    <t>321.42</t>
-  </si>
-  <si>
-    <t>327.28</t>
-  </si>
-  <si>
-    <t>315.51</t>
-  </si>
-  <si>
-    <t>329.64</t>
-  </si>
-  <si>
-    <t>67.03</t>
-  </si>
-  <si>
-    <t>80.25</t>
-  </si>
-  <si>
-    <t>75.27</t>
-  </si>
-  <si>
-    <t>357.43</t>
-  </si>
-  <si>
-    <t>361.10</t>
-  </si>
-  <si>
-    <t>358.72</t>
-  </si>
-  <si>
-    <t>361.02</t>
-  </si>
-  <si>
-    <t>362.84</t>
-  </si>
-  <si>
-    <t>359.11</t>
+    <t>47.64</t>
+  </si>
+  <si>
+    <t>30.23</t>
+  </si>
+  <si>
+    <t>17.55</t>
+  </si>
+  <si>
+    <t>361.25</t>
+  </si>
+  <si>
+    <t>346.53</t>
+  </si>
+  <si>
+    <t>144.22</t>
+  </si>
+  <si>
+    <t>361.34</t>
+  </si>
+  <si>
+    <t>325.15</t>
+  </si>
+  <si>
+    <t>144.41</t>
+  </si>
+  <si>
+    <t>48.49</t>
+  </si>
+  <si>
+    <t>25.72</t>
+  </si>
+  <si>
+    <t>17.49</t>
+  </si>
+  <si>
+    <t>365.12</t>
+  </si>
+  <si>
+    <t>381.34</t>
+  </si>
+  <si>
+    <t>162.01</t>
+  </si>
+  <si>
+    <t>365.75</t>
+  </si>
+  <si>
+    <t>367.71</t>
+  </si>
+  <si>
+    <t>160.42</t>
   </si>
   <si>
     <t>[100]</t>
   </si>
   <si>
-    <t>141.65</t>
-  </si>
-  <si>
-    <t>146.61</t>
-  </si>
-  <si>
-    <t>147.07</t>
-  </si>
-  <si>
-    <t>584.16</t>
-  </si>
-  <si>
-    <t>588.93</t>
-  </si>
-  <si>
-    <t>588.47</t>
-  </si>
-  <si>
-    <t>581.14</t>
-  </si>
-  <si>
-    <t>606.30</t>
-  </si>
-  <si>
-    <t>612.11</t>
-  </si>
-  <si>
-    <t>139.53</t>
-  </si>
-  <si>
-    <t>131.97</t>
-  </si>
-  <si>
-    <t>146.80</t>
-  </si>
-  <si>
-    <t>560.24</t>
-  </si>
-  <si>
-    <t>542.08</t>
-  </si>
-  <si>
-    <t>524.11</t>
-  </si>
-  <si>
-    <t>516.60</t>
-  </si>
-  <si>
-    <t>501.25</t>
-  </si>
-  <si>
-    <t>506.71</t>
+    <t>86.40</t>
+  </si>
+  <si>
+    <t>68.40</t>
+  </si>
+  <si>
+    <t>77.51</t>
+  </si>
+  <si>
+    <t>606.03</t>
+  </si>
+  <si>
+    <t>634.81</t>
+  </si>
+  <si>
+    <t>320.02</t>
+  </si>
+  <si>
+    <t>636.05</t>
+  </si>
+  <si>
+    <t>680.01</t>
+  </si>
+  <si>
+    <t>326.45</t>
+  </si>
+  <si>
+    <t>79.04</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>31.81</t>
+  </si>
+  <si>
+    <t>641.79</t>
+  </si>
+  <si>
+    <t>711.84</t>
+  </si>
+  <si>
+    <t>285.59</t>
+  </si>
+  <si>
+    <t>530.46</t>
+  </si>
+  <si>
+    <t>526.19</t>
+  </si>
+  <si>
+    <t>295.19</t>
   </si>
   <si>
     <t>[200]</t>
   </si>
   <si>
-    <t>244.93</t>
-  </si>
-  <si>
-    <t>229.47</t>
-  </si>
-  <si>
-    <t>209.55</t>
-  </si>
-  <si>
-    <t>931.46</t>
-  </si>
-  <si>
-    <t>939.61</t>
-  </si>
-  <si>
-    <t>949.32</t>
-  </si>
-  <si>
-    <t>1054.03</t>
-  </si>
-  <si>
-    <t>1068.28</t>
-  </si>
-  <si>
-    <t>961.60</t>
-  </si>
-  <si>
-    <t>268.27</t>
-  </si>
-  <si>
-    <t>295.77</t>
-  </si>
-  <si>
-    <t>267.68</t>
-  </si>
-  <si>
-    <t>1059.35</t>
-  </si>
-  <si>
-    <t>1056.81</t>
-  </si>
-  <si>
-    <t>1195.81</t>
-  </si>
-  <si>
-    <t>1179.49</t>
-  </si>
-  <si>
-    <t>1122.02</t>
-  </si>
-  <si>
-    <t>1120.59</t>
-  </si>
-  <si>
-    <t>Media_A</t>
-  </si>
-  <si>
-    <t>DEV STD</t>
-  </si>
-  <si>
-    <t>MEDIA_E</t>
+    <t>130.06</t>
+  </si>
+  <si>
+    <t>95.01</t>
+  </si>
+  <si>
+    <t>88.85</t>
+  </si>
+  <si>
+    <t>956.05</t>
+  </si>
+  <si>
+    <t>1007.75</t>
+  </si>
+  <si>
+    <t>500.12</t>
+  </si>
+  <si>
+    <t>983.78</t>
+  </si>
+  <si>
+    <t>957.88</t>
+  </si>
+  <si>
+    <t>487.33</t>
+  </si>
+  <si>
+    <t>140.80</t>
+  </si>
+  <si>
+    <t>87.23</t>
+  </si>
+  <si>
+    <t>68.84</t>
+  </si>
+  <si>
+    <t>1051.73</t>
+  </si>
+  <si>
+    <t>1068.08</t>
+  </si>
+  <si>
+    <t>607.72</t>
+  </si>
+  <si>
+    <t>1189.38</t>
+  </si>
+  <si>
+    <t>1143.29</t>
+  </si>
+  <si>
+    <t>607.22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -289,7 +270,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -299,7 +279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,8 +291,13 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -335,38 +320,44 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Colore 3" xfId="1" builtinId="37"/>
+    <cellStyle name="Colore 4" xfId="2" builtinId="41"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -669,26 +660,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -745,7 +721,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -769,36 +745,36 @@
         <v>19</v>
       </c>
       <c r="I2">
-        <v>0.99331250000000004</v>
+        <v>0.9945208333333333</v>
       </c>
       <c r="J2">
-        <v>0.96924999999999994</v>
+        <v>0.96875</v>
       </c>
       <c r="K2">
-        <v>1598.063993652011</v>
+        <v>1364.7610363869401</v>
       </c>
       <c r="L2">
-        <v>1278.746900176581</v>
+        <v>1244.4642675519531</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="N2">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="O2" t="s">
         <v>20</v>
       </c>
       <c r="P2">
-        <v>0.99331785664562167</v>
+        <v>0.99452102263184039</v>
       </c>
       <c r="Q2">
-        <v>0.96884724675502709</v>
+        <v>0.96837438395425868</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -822,36 +798,36 @@
         <v>19</v>
       </c>
       <c r="I3">
-        <v>0.99443749999999997</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="J3">
-        <v>0.9694166666666667</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="K3">
-        <v>1406.5969821857191</v>
+        <v>2656.9509883392561</v>
       </c>
       <c r="L3">
-        <v>1320.4318041996289</v>
+        <v>1544.329360646298</v>
       </c>
       <c r="M3">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="N3">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
         <v>21</v>
       </c>
       <c r="P3">
-        <v>0.99444555508105892</v>
+        <v>0.98490271590426581</v>
       </c>
       <c r="Q3">
-        <v>0.96902171435758233</v>
+        <v>0.96149293883212472</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>32</v>
@@ -875,36 +851,36 @@
         <v>19</v>
       </c>
       <c r="I4">
-        <v>0.99456250000000002</v>
+        <v>0.97418749999999998</v>
       </c>
       <c r="J4">
-        <v>0.97141666666666671</v>
+        <v>0.95683333333333331</v>
       </c>
       <c r="K4">
-        <v>1407.978728678057</v>
+        <v>4141.0212636413926</v>
       </c>
       <c r="L4">
-        <v>1250.800411864657</v>
+        <v>1792.459626427067</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N4">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="O4" t="s">
         <v>22</v>
       </c>
       <c r="P4">
-        <v>0.99457334341632886</v>
+        <v>0.97396919425553852</v>
       </c>
       <c r="Q4">
-        <v>0.97103284650074928</v>
+        <v>0.95619626538844338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>32</v>
@@ -928,16 +904,16 @@
         <v>19</v>
       </c>
       <c r="I5">
-        <v>0.9712291666666667</v>
+        <v>0.98502083333333335</v>
       </c>
       <c r="J5">
-        <v>0.95983333333333332</v>
+        <v>0.96891666666666665</v>
       </c>
       <c r="K5">
-        <v>4898.636721702359</v>
+        <v>2902.6840843735872</v>
       </c>
       <c r="L5">
-        <v>1733.981032919738</v>
+        <v>1279.8147116945349</v>
       </c>
       <c r="N5">
         <v>499</v>
@@ -946,15 +922,15 @@
         <v>23</v>
       </c>
       <c r="P5">
-        <v>0.97103992631920977</v>
+        <v>0.98495932138304099</v>
       </c>
       <c r="Q5">
-        <v>0.95936626452996809</v>
+        <v>0.9685692418631715</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>32</v>
@@ -978,33 +954,36 @@
         <v>19</v>
       </c>
       <c r="I6">
-        <v>0.97041666666666671</v>
+        <v>0.99383333333333335</v>
       </c>
       <c r="J6">
-        <v>0.95758333333333334</v>
+        <v>0.97075</v>
       </c>
       <c r="K6">
-        <v>5049.7371394135334</v>
+        <v>1551.7590045497061</v>
       </c>
       <c r="L6">
-        <v>1776.4617176003851</v>
+        <v>1197.584804307086</v>
+      </c>
+      <c r="M6">
+        <v>491</v>
       </c>
       <c r="N6">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="O6" t="s">
         <v>24</v>
       </c>
       <c r="P6">
-        <v>0.97019025379490953</v>
+        <v>0.99384697237353037</v>
       </c>
       <c r="Q6">
-        <v>0.95702679562559756</v>
+        <v>0.97036335221466974</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>32</v>
@@ -1028,33 +1007,36 @@
         <v>19</v>
       </c>
       <c r="I7">
-        <v>0.97216666666666662</v>
+        <v>0.99393750000000003</v>
       </c>
       <c r="J7">
-        <v>0.95908333333333329</v>
+        <v>0.97091666666666665</v>
       </c>
       <c r="K7">
-        <v>4832.9992793436249</v>
+        <v>1550.5060944583529</v>
       </c>
       <c r="L7">
-        <v>1679.1795826858499</v>
+        <v>1234.688775036695</v>
+      </c>
+      <c r="M7">
+        <v>201</v>
       </c>
       <c r="N7">
-        <v>499</v>
+        <v>186</v>
       </c>
       <c r="O7" t="s">
         <v>25</v>
       </c>
       <c r="P7">
-        <v>0.97198547981247407</v>
+        <v>0.99395105446442211</v>
       </c>
       <c r="Q7">
-        <v>0.9585245416633319</v>
+        <v>0.97055362008499557</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>32</v>
@@ -1078,16 +1060,16 @@
         <v>19</v>
       </c>
       <c r="I8">
-        <v>0.96956249999999999</v>
+        <v>0.98256250000000001</v>
       </c>
       <c r="J8">
-        <v>0.95816666666666672</v>
+        <v>0.9664166666666667</v>
       </c>
       <c r="K8">
-        <v>5159.3709918500936</v>
+        <v>3168.318808456318</v>
       </c>
       <c r="L8">
-        <v>1768.3449242450231</v>
+        <v>1330.5393576830679</v>
       </c>
       <c r="N8">
         <v>499</v>
@@ -1096,15 +1078,15 @@
         <v>26</v>
       </c>
       <c r="P8">
-        <v>0.96938904432334727</v>
+        <v>0.98246611084534086</v>
       </c>
       <c r="Q8">
-        <v>0.95763231829880335</v>
+        <v>0.96596182535592967</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>32</v>
@@ -1128,16 +1110,16 @@
         <v>19</v>
       </c>
       <c r="I9">
-        <v>0.9692708333333333</v>
+        <v>0.99406249999999996</v>
       </c>
       <c r="J9">
-        <v>0.95866666666666667</v>
+        <v>0.97258333333333336</v>
       </c>
       <c r="K9">
-        <v>5191.5728491297832</v>
+        <v>1489.3696737313439</v>
       </c>
       <c r="L9">
-        <v>1780.3753063142631</v>
+        <v>1170.4537298347741</v>
       </c>
       <c r="N9">
         <v>499</v>
@@ -1146,15 +1128,15 @@
         <v>27</v>
       </c>
       <c r="P9">
-        <v>0.96906045524542039</v>
+        <v>0.99407096640592163</v>
       </c>
       <c r="Q9">
-        <v>0.95817659882183792</v>
+        <v>0.97223216808273549</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>32</v>
@@ -1178,33 +1160,36 @@
         <v>19</v>
       </c>
       <c r="I10">
-        <v>0.96695833333333336</v>
+        <v>0.99429166666666668</v>
       </c>
       <c r="J10">
-        <v>0.95625000000000004</v>
+        <v>0.97</v>
       </c>
       <c r="K10">
-        <v>5587.7962229743262</v>
+        <v>1534.945672651603</v>
       </c>
       <c r="L10">
-        <v>1866.3937196644949</v>
+        <v>1212.6116977379199</v>
+      </c>
+      <c r="M10">
+        <v>223</v>
       </c>
       <c r="N10">
-        <v>499</v>
+        <v>208</v>
       </c>
       <c r="O10" t="s">
         <v>28</v>
       </c>
       <c r="P10">
-        <v>0.96675005866410468</v>
+        <v>0.99428450928382228</v>
       </c>
       <c r="Q10">
-        <v>0.95570614108843865</v>
+        <v>0.96961154851811759</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>64</v>
@@ -1228,36 +1213,36 @@
         <v>19</v>
       </c>
       <c r="I11">
-        <v>0.99214583333333328</v>
+        <v>0.99470833333333331</v>
       </c>
       <c r="J11">
-        <v>0.96858333333333335</v>
+        <v>0.96958333333333335</v>
       </c>
       <c r="K11">
-        <v>1764.5142400505499</v>
+        <v>1342.175668959718</v>
       </c>
       <c r="L11">
-        <v>1422.3208300648471</v>
+        <v>1179.5713256965471</v>
       </c>
       <c r="M11">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="N11">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="O11" t="s">
         <v>29</v>
       </c>
       <c r="P11">
-        <v>0.99212981624030738</v>
+        <v>0.99470219412163452</v>
       </c>
       <c r="Q11">
-        <v>0.96824440643873966</v>
+        <v>0.96916970203999886</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>64</v>
@@ -1281,36 +1266,36 @@
         <v>19</v>
       </c>
       <c r="I12">
-        <v>0.99395833333333339</v>
+        <v>0.98858333333333337</v>
       </c>
       <c r="J12">
-        <v>0.96875</v>
+        <v>0.96766666666666667</v>
       </c>
       <c r="K12">
-        <v>1546.371601753473</v>
+        <v>2128.9547442203452</v>
       </c>
       <c r="L12">
-        <v>1316.326923358552</v>
+        <v>1268.6858947677561</v>
       </c>
       <c r="M12">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="N12">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="O12" t="s">
         <v>30</v>
       </c>
       <c r="P12">
-        <v>0.99397234508361443</v>
+        <v>0.98848697653395323</v>
       </c>
       <c r="Q12">
-        <v>0.9684052025407125</v>
+        <v>0.96716718175508609</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>64</v>
@@ -1334,36 +1319,36 @@
         <v>19</v>
       </c>
       <c r="I13">
-        <v>0.99427083333333333</v>
+        <v>0.98435416666666664</v>
       </c>
       <c r="J13">
-        <v>0.96899999999999997</v>
+        <v>0.96625000000000005</v>
       </c>
       <c r="K13">
-        <v>1477.165707136222</v>
+        <v>2611.0152246774201</v>
       </c>
       <c r="L13">
-        <v>1278.448121069516</v>
+        <v>1329.0614011515579</v>
       </c>
       <c r="M13">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="N13">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="O13" t="s">
         <v>31</v>
       </c>
       <c r="P13">
-        <v>0.99430156006854775</v>
+        <v>0.98425199475339264</v>
       </c>
       <c r="Q13">
-        <v>0.96867334363837743</v>
+        <v>0.96580741960320116</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>64</v>
@@ -1387,16 +1372,16 @@
         <v>19</v>
       </c>
       <c r="I14">
-        <v>0.97162499999999996</v>
+        <v>0.98464583333333333</v>
       </c>
       <c r="J14">
-        <v>0.95816666666666672</v>
+        <v>0.96825000000000006</v>
       </c>
       <c r="K14">
-        <v>4885.5387754303638</v>
+        <v>2933.6137148275052</v>
       </c>
       <c r="L14">
-        <v>1729.8407763732239</v>
+        <v>1318.355546445938</v>
       </c>
       <c r="N14">
         <v>499</v>
@@ -1405,15 +1390,15 @@
         <v>32</v>
       </c>
       <c r="P14">
-        <v>0.97145187752736673</v>
+        <v>0.98454861920553327</v>
       </c>
       <c r="Q14">
-        <v>0.95763326193379328</v>
+        <v>0.96787740246065435</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>64</v>
@@ -1437,33 +1422,33 @@
         <v>19</v>
       </c>
       <c r="I15">
-        <v>0.9702291666666667</v>
+        <v>0.99470833333333331</v>
       </c>
       <c r="J15">
-        <v>0.95925000000000005</v>
+        <v>0.97016666666666662</v>
       </c>
       <c r="K15">
-        <v>5063.1128892734887</v>
+        <v>1428.939800950073</v>
       </c>
       <c r="L15">
-        <v>1763.5330860671299</v>
+        <v>1216.426839235954</v>
       </c>
       <c r="N15">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="O15" t="s">
         <v>33</v>
       </c>
       <c r="P15">
-        <v>0.96998011966767428</v>
+        <v>0.99472693185880734</v>
       </c>
       <c r="Q15">
-        <v>0.95872415892125018</v>
+        <v>0.96981916676163293</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>64</v>
@@ -1487,33 +1472,36 @@
         <v>19</v>
       </c>
       <c r="I16">
-        <v>0.9722291666666667</v>
+        <v>0.99502083333333335</v>
       </c>
       <c r="J16">
-        <v>0.95974999999999999</v>
+        <v>0.9700833333333333</v>
       </c>
       <c r="K16">
-        <v>4787.7037938619933</v>
+        <v>1378.749418164708</v>
       </c>
       <c r="L16">
-        <v>1742.1158359253191</v>
+        <v>1194.912470014719</v>
+      </c>
+      <c r="M16">
+        <v>219</v>
       </c>
       <c r="N16">
-        <v>499</v>
+        <v>204</v>
       </c>
       <c r="O16" t="s">
         <v>34</v>
       </c>
       <c r="P16">
-        <v>0.9720529520980371</v>
+        <v>0.99502765788534508</v>
       </c>
       <c r="Q16">
-        <v>0.95922724451942598</v>
+        <v>0.96967974093791898</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>64</v>
@@ -1537,16 +1525,16 @@
         <v>19</v>
       </c>
       <c r="I17">
-        <v>0.96968750000000004</v>
+        <v>0.98297916666666663</v>
       </c>
       <c r="J17">
-        <v>0.95599999999999996</v>
+        <v>0.96675</v>
       </c>
       <c r="K17">
-        <v>5262.8468639767179</v>
+        <v>3178.4910358012748</v>
       </c>
       <c r="L17">
-        <v>1810.28497503783</v>
+        <v>1365.347771633614</v>
       </c>
       <c r="N17">
         <v>499</v>
@@ -1555,15 +1543,15 @@
         <v>35</v>
       </c>
       <c r="P17">
-        <v>0.96944528401225283</v>
+        <v>0.98291255432628299</v>
       </c>
       <c r="Q17">
-        <v>0.95543643911215137</v>
+        <v>0.96639175515975995</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>64</v>
@@ -1587,16 +1575,16 @@
         <v>19</v>
       </c>
       <c r="I18">
-        <v>0.96931250000000002</v>
+        <v>0.99379166666666663</v>
       </c>
       <c r="J18">
-        <v>0.95708333333333329</v>
+        <v>0.97258333333333336</v>
       </c>
       <c r="K18">
-        <v>5297.7463020146688</v>
+        <v>1533.014686199441</v>
       </c>
       <c r="L18">
-        <v>1785.350989724526</v>
+        <v>1134.524943384826</v>
       </c>
       <c r="N18">
         <v>499</v>
@@ -1605,15 +1593,15 @@
         <v>36</v>
       </c>
       <c r="P18">
-        <v>0.96912194382491701</v>
+        <v>0.99379329451808829</v>
       </c>
       <c r="Q18">
-        <v>0.95653019313100407</v>
+        <v>0.97220622386116262</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>64</v>
@@ -1637,33 +1625,36 @@
         <v>19</v>
       </c>
       <c r="I19">
-        <v>0.96847916666666667</v>
+        <v>0.99327083333333333</v>
       </c>
       <c r="J19">
-        <v>0.95816666666666672</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="K19">
-        <v>5357.7617827524782</v>
+        <v>1622.043779646943</v>
       </c>
       <c r="L19">
-        <v>1815.5225749353269</v>
+        <v>1220.475218771232</v>
+      </c>
+      <c r="M19">
+        <v>215</v>
       </c>
       <c r="N19">
-        <v>499</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s">
         <v>37</v>
       </c>
       <c r="P19">
-        <v>0.96826289029586354</v>
+        <v>0.99325992334210311</v>
       </c>
       <c r="Q19">
-        <v>0.95763916710262009</v>
+        <v>0.96854005621319439</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>32</v>
@@ -1687,36 +1678,36 @@
         <v>19</v>
       </c>
       <c r="I20">
-        <v>0.99685416666666671</v>
+        <v>0.98483333333333334</v>
       </c>
       <c r="J20">
-        <v>0.97158333333333335</v>
+        <v>0.96</v>
       </c>
       <c r="K20">
-        <v>1037.4253273253289</v>
+        <v>2678.866654337553</v>
       </c>
       <c r="L20">
-        <v>1221.242374902545</v>
+        <v>1617.3687269470611</v>
       </c>
       <c r="M20">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="N20">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="O20" t="s">
         <v>39</v>
       </c>
       <c r="P20">
-        <v>0.99687184920851946</v>
+        <v>0.98473442926613131</v>
       </c>
       <c r="Q20">
-        <v>0.97124203217225313</v>
+        <v>0.95941803517172575</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>32</v>
@@ -1740,36 +1731,36 @@
         <v>19</v>
       </c>
       <c r="I21">
-        <v>0.99420833333333336</v>
+        <v>0.94787500000000002</v>
       </c>
       <c r="J21">
-        <v>0.96875</v>
+        <v>0.93266666666666664</v>
       </c>
       <c r="K21">
-        <v>1399.0397512115139</v>
+        <v>8605.9907871267042</v>
       </c>
       <c r="L21">
-        <v>1336.561257928827</v>
+        <v>3004.2319430681978</v>
       </c>
       <c r="M21">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="N21">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="O21" t="s">
         <v>40</v>
       </c>
       <c r="P21">
-        <v>0.99422529254213199</v>
+        <v>0.94725117238350676</v>
       </c>
       <c r="Q21">
-        <v>0.96831960353203539</v>
+        <v>0.93141174969044638</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>32</v>
@@ -1793,36 +1784,36 @@
         <v>19</v>
       </c>
       <c r="I22">
-        <v>0.99729166666666669</v>
+        <v>0.96387500000000004</v>
       </c>
       <c r="J22">
-        <v>0.97216666666666662</v>
+        <v>0.94191666666666662</v>
       </c>
       <c r="K22">
-        <v>958.55532130422489</v>
+        <v>5907.1564098114723</v>
       </c>
       <c r="L22">
-        <v>1230.876465922019</v>
+        <v>2678.4522213731661</v>
       </c>
       <c r="M22">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="N22">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="O22" t="s">
         <v>41</v>
       </c>
       <c r="P22">
-        <v>0.99730801939767155</v>
+        <v>0.96335324144727108</v>
       </c>
       <c r="Q22">
-        <v>0.97186681372193395</v>
+        <v>0.94089118401077365</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>32</v>
@@ -1846,16 +1837,16 @@
         <v>19</v>
       </c>
       <c r="I23">
-        <v>0.97475000000000001</v>
+        <v>0.98856250000000001</v>
       </c>
       <c r="J23">
-        <v>0.96183333333333332</v>
+        <v>0.97191666666666665</v>
       </c>
       <c r="K23">
-        <v>4451.4185424591724</v>
+        <v>2293.030568538788</v>
       </c>
       <c r="L23">
-        <v>1588.0742659859379</v>
+        <v>1115.8963252487999</v>
       </c>
       <c r="N23">
         <v>499</v>
@@ -1864,15 +1855,15 @@
         <v>42</v>
       </c>
       <c r="P23">
-        <v>0.97461707950086507</v>
+        <v>0.98852934726125308</v>
       </c>
       <c r="Q23">
-        <v>0.96134863458764674</v>
+        <v>0.97152906756193202</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>32</v>
@@ -1896,16 +1887,16 @@
         <v>19</v>
       </c>
       <c r="I24">
-        <v>0.9745625</v>
+        <v>0.99797916666666664</v>
       </c>
       <c r="J24">
-        <v>0.96116666666666661</v>
+        <v>0.97675000000000001</v>
       </c>
       <c r="K24">
-        <v>4441.4667959537883</v>
+        <v>899.00038069346806</v>
       </c>
       <c r="L24">
-        <v>1620.237673625254</v>
+        <v>964.55652421783077</v>
       </c>
       <c r="N24">
         <v>499</v>
@@ -1914,15 +1905,15 @@
         <v>43</v>
       </c>
       <c r="P24">
-        <v>0.9744435713016566</v>
+        <v>0.99801021497388798</v>
       </c>
       <c r="Q24">
-        <v>0.96070615871503517</v>
+        <v>0.97640775357407716</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>32</v>
@@ -1946,33 +1937,36 @@
         <v>19</v>
       </c>
       <c r="I25">
-        <v>0.97441666666666671</v>
+        <v>0.9985208333333333</v>
       </c>
       <c r="J25">
-        <v>0.96358333333333335</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="K25">
-        <v>4443.4249370535445</v>
+        <v>741.00710340115131</v>
       </c>
       <c r="L25">
-        <v>1593.9083909793301</v>
+        <v>988.92077033717828</v>
+      </c>
+      <c r="M25">
+        <v>242</v>
       </c>
       <c r="N25">
-        <v>499</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25">
-        <v>0.97430627388917745</v>
+        <v>0.99853874777303486</v>
       </c>
       <c r="Q25">
-        <v>0.96313218731892891</v>
+        <v>0.97567572080143616</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>32</v>
@@ -1996,16 +1990,16 @@
         <v>19</v>
       </c>
       <c r="I26">
-        <v>0.97170833333333329</v>
+        <v>0.98612500000000003</v>
       </c>
       <c r="J26">
-        <v>0.95950000000000002</v>
+        <v>0.97150000000000003</v>
       </c>
       <c r="K26">
-        <v>4931.765110982049</v>
+        <v>2611.1361219517512</v>
       </c>
       <c r="L26">
-        <v>1703.9123740462051</v>
+        <v>1144.5713370331689</v>
       </c>
       <c r="N26">
         <v>499</v>
@@ -2014,15 +2008,15 @@
         <v>45</v>
       </c>
       <c r="P26">
-        <v>0.97156739411068371</v>
+        <v>0.98606493542710427</v>
       </c>
       <c r="Q26">
-        <v>0.95900305384332207</v>
+        <v>0.97122830695547757</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>32</v>
@@ -2046,16 +2040,16 @@
         <v>19</v>
       </c>
       <c r="I27">
-        <v>0.97272916666666664</v>
+        <v>0.99691666666666667</v>
       </c>
       <c r="J27">
-        <v>0.96225000000000005</v>
+        <v>0.97566666666666668</v>
       </c>
       <c r="K27">
-        <v>4724.2544914481177</v>
+        <v>1047.0323368043821</v>
       </c>
       <c r="L27">
-        <v>1647.445253314439</v>
+        <v>1023.610290054893</v>
       </c>
       <c r="N27">
         <v>499</v>
@@ -2064,15 +2058,15 @@
         <v>46</v>
       </c>
       <c r="P27">
-        <v>0.97260250677314986</v>
+        <v>0.99693018328210492</v>
       </c>
       <c r="Q27">
-        <v>0.96179321400008977</v>
+        <v>0.97535071265760109</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>32</v>
@@ -2096,33 +2090,36 @@
         <v>19</v>
       </c>
       <c r="I28">
-        <v>0.97264583333333332</v>
+        <v>0.99810416666666668</v>
       </c>
       <c r="J28">
-        <v>0.96033333333333337</v>
+        <v>0.97541666666666671</v>
       </c>
       <c r="K28">
-        <v>4725.591032891959</v>
+        <v>834.9615726310268</v>
       </c>
       <c r="L28">
-        <v>1683.1096276447349</v>
+        <v>1003.246929165117</v>
+      </c>
+      <c r="M28">
+        <v>247</v>
       </c>
       <c r="N28">
-        <v>499</v>
+        <v>232</v>
       </c>
       <c r="O28" t="s">
         <v>47</v>
       </c>
       <c r="P28">
-        <v>0.97246988876851792</v>
+        <v>0.99813096273983282</v>
       </c>
       <c r="Q28">
-        <v>0.95982907595025913</v>
+        <v>0.97503535049730827</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>64</v>
@@ -2146,36 +2143,36 @@
         <v>19</v>
       </c>
       <c r="I29">
-        <v>0.99814583333333329</v>
+        <v>0.99818750000000001</v>
       </c>
       <c r="J29">
-        <v>0.97524999999999995</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="K29">
-        <v>804.3862238894925</v>
+        <v>768.82798866942801</v>
       </c>
       <c r="L29">
-        <v>1129.9594986095469</v>
+        <v>1053.0041337530561</v>
       </c>
       <c r="M29">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="N29">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="O29" t="s">
         <v>48</v>
       </c>
       <c r="P29">
-        <v>0.99816391693075146</v>
+        <v>0.99821435903375</v>
       </c>
       <c r="Q29">
-        <v>0.97495477602179648</v>
+        <v>0.9736578785909904</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>64</v>
@@ -2199,36 +2196,36 @@
         <v>19</v>
       </c>
       <c r="I30">
-        <v>0.99770833333333331</v>
+        <v>0.998</v>
       </c>
       <c r="J30">
-        <v>0.97350000000000003</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="K30">
-        <v>865.20845920455133</v>
+        <v>697.90523879157843</v>
       </c>
       <c r="L30">
-        <v>1150.547265772788</v>
+        <v>1170.731988460157</v>
       </c>
       <c r="M30">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="N30">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="O30" t="s">
         <v>49</v>
       </c>
       <c r="P30">
-        <v>0.99772963232118739</v>
+        <v>0.99800887524252158</v>
       </c>
       <c r="Q30">
-        <v>0.97317950784260565</v>
+        <v>0.97162291707954473</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>64</v>
@@ -2252,36 +2249,36 @@
         <v>19</v>
       </c>
       <c r="I31">
-        <v>0.99858333333333338</v>
+        <v>0.98168750000000005</v>
       </c>
       <c r="J31">
-        <v>0.97399999999999998</v>
+        <v>0.96391666666666664</v>
       </c>
       <c r="K31">
-        <v>720.09502027890255</v>
+        <v>2950.0776996779459</v>
       </c>
       <c r="L31">
-        <v>1112.7013778648229</v>
+        <v>1506.302118777081</v>
       </c>
       <c r="M31">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="N31">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="O31" t="s">
         <v>50</v>
       </c>
       <c r="P31">
-        <v>0.99860508733410602</v>
+        <v>0.98156740924875463</v>
       </c>
       <c r="Q31">
-        <v>0.97368797469750956</v>
+        <v>0.96340804028406046</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>64</v>
@@ -2305,16 +2302,16 @@
         <v>19</v>
       </c>
       <c r="I32">
-        <v>0.97535416666666663</v>
+        <v>0.98806249999999995</v>
       </c>
       <c r="J32">
-        <v>0.96399999999999997</v>
+        <v>0.97291666666666665</v>
       </c>
       <c r="K32">
-        <v>4304.5265599024979</v>
+        <v>2309.040186149331</v>
       </c>
       <c r="L32">
-        <v>1569.176112483784</v>
+        <v>1096.392641711589</v>
       </c>
       <c r="N32">
         <v>499</v>
@@ -2323,15 +2320,15 @@
         <v>51</v>
       </c>
       <c r="P32">
-        <v>0.97519953594932363</v>
+        <v>0.98804086829123339</v>
       </c>
       <c r="Q32">
-        <v>0.96358196715761935</v>
+        <v>0.97257133466844414</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -2355,16 +2352,16 @@
         <v>19</v>
       </c>
       <c r="I33">
-        <v>0.97497916666666662</v>
+        <v>0.99754166666666666</v>
       </c>
       <c r="J33">
-        <v>0.96166666666666667</v>
+        <v>0.97441666666666671</v>
       </c>
       <c r="K33">
-        <v>4388.8553491884441</v>
+        <v>919.51213414222104</v>
       </c>
       <c r="L33">
-        <v>1607.101010958218</v>
+        <v>1055.8791471870461</v>
       </c>
       <c r="N33">
         <v>499</v>
@@ -2373,15 +2370,15 @@
         <v>52</v>
       </c>
       <c r="P33">
-        <v>0.97482111245577641</v>
+        <v>0.99757015498109447</v>
       </c>
       <c r="Q33">
-        <v>0.96120925622328512</v>
+        <v>0.97405523413573147</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>64</v>
@@ -2405,33 +2402,36 @@
         <v>19</v>
       </c>
       <c r="I34">
-        <v>0.97418749999999998</v>
+        <v>0.99924999999999997</v>
       </c>
       <c r="J34">
-        <v>0.96274999999999999</v>
+        <v>0.97641666666666671</v>
       </c>
       <c r="K34">
-        <v>4439.8447268945229</v>
+        <v>620.22688246933092</v>
       </c>
       <c r="L34">
-        <v>1612.963498946167</v>
+        <v>964.22745312286656</v>
+      </c>
+      <c r="M34">
+        <v>263</v>
       </c>
       <c r="N34">
-        <v>499</v>
+        <v>248</v>
       </c>
       <c r="O34" t="s">
         <v>53</v>
       </c>
       <c r="P34">
-        <v>0.9740163875406177</v>
+        <v>0.99926570798194925</v>
       </c>
       <c r="Q34">
-        <v>0.96228033727372841</v>
+        <v>0.97617482456936067</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>64</v>
@@ -2455,16 +2455,16 @@
         <v>19</v>
       </c>
       <c r="I35">
-        <v>0.97164583333333332</v>
+        <v>0.98583333333333334</v>
       </c>
       <c r="J35">
-        <v>0.95983333333333332</v>
+        <v>0.97150000000000003</v>
       </c>
       <c r="K35">
-        <v>4867.4467624695053</v>
+        <v>2651.660041885717</v>
       </c>
       <c r="L35">
-        <v>1700.471079307491</v>
+        <v>1157.566703512377</v>
       </c>
       <c r="N35">
         <v>499</v>
@@ -2473,15 +2473,15 @@
         <v>54</v>
       </c>
       <c r="P35">
-        <v>0.97146880900875043</v>
+        <v>0.98578601022050982</v>
       </c>
       <c r="Q35">
-        <v>0.95931716648485299</v>
+        <v>0.97118150154888405</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>64</v>
@@ -2505,16 +2505,16 @@
         <v>19</v>
       </c>
       <c r="I36">
-        <v>0.97150000000000003</v>
+        <v>0.99716666666666665</v>
       </c>
       <c r="J36">
-        <v>0.96091666666666664</v>
+        <v>0.97466666666666668</v>
       </c>
       <c r="K36">
-        <v>4794.4734062389898</v>
+        <v>1054.7422025160761</v>
       </c>
       <c r="L36">
-        <v>1677.849321933908</v>
+        <v>1021.468012653555</v>
       </c>
       <c r="N36">
         <v>499</v>
@@ -2523,15 +2523,15 @@
         <v>55</v>
       </c>
       <c r="P36">
-        <v>0.97131270491482824</v>
+        <v>0.99719064174902816</v>
       </c>
       <c r="Q36">
-        <v>0.96043134671679709</v>
+        <v>0.97434081394088889</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>64</v>
@@ -2555,33 +2555,36 @@
         <v>19</v>
       </c>
       <c r="I37">
-        <v>0.97283333333333333</v>
+        <v>0.99889583333333332</v>
       </c>
       <c r="J37">
-        <v>0.96225000000000005</v>
+        <v>0.9750833333333333</v>
       </c>
       <c r="K37">
-        <v>4636.0260090819665</v>
+        <v>668.53247656123858</v>
       </c>
       <c r="L37">
-        <v>1636.42720732061</v>
+        <v>969.99421896659521</v>
+      </c>
+      <c r="M37">
+        <v>279</v>
       </c>
       <c r="N37">
-        <v>499</v>
+        <v>264</v>
       </c>
       <c r="O37" t="s">
         <v>56</v>
       </c>
       <c r="P37">
-        <v>0.9726570309537188</v>
+        <v>0.99891011744235669</v>
       </c>
       <c r="Q37">
-        <v>0.96180631161887775</v>
+        <v>0.9747257429548325</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>32</v>
@@ -2605,36 +2608,36 @@
         <v>19</v>
       </c>
       <c r="I38">
-        <v>0.99837500000000001</v>
+        <v>0.97691666666666666</v>
       </c>
       <c r="J38">
-        <v>0.97350000000000003</v>
+        <v>0.95591666666666664</v>
       </c>
       <c r="K38">
-        <v>771.99521863255097</v>
+        <v>3951.2206101245069</v>
       </c>
       <c r="L38">
-        <v>1135.1916377969051</v>
+        <v>1864.080920129094</v>
       </c>
       <c r="M38">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="N38">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="O38" t="s">
         <v>58</v>
       </c>
       <c r="P38">
-        <v>0.99839879428341105</v>
+        <v>0.97676385627946138</v>
       </c>
       <c r="Q38">
-        <v>0.97318285772172253</v>
+        <v>0.95531570423108259</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>32</v>
@@ -2658,36 +2661,36 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.99585416666666671</v>
+        <v>0.9672708333333333</v>
       </c>
       <c r="J39">
-        <v>0.96916666666666662</v>
+        <v>0.94658333333333333</v>
       </c>
       <c r="K39">
-        <v>1153.798702677818</v>
+        <v>5254.5705063850983</v>
       </c>
       <c r="L39">
-        <v>1229.361885179203</v>
+        <v>2256.6947783550991</v>
       </c>
       <c r="M39">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="N39">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="O39" t="s">
         <v>59</v>
       </c>
       <c r="P39">
-        <v>0.9958660107965347</v>
+        <v>0.96695429869572469</v>
       </c>
       <c r="Q39">
-        <v>0.96880218937965989</v>
+        <v>0.94578109621730655</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>32</v>
@@ -2711,36 +2714,36 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.99522916666666672</v>
+        <v>0.94927083333333329</v>
       </c>
       <c r="J40">
-        <v>0.96699999999999997</v>
+        <v>0.93441666666666667</v>
       </c>
       <c r="K40">
-        <v>1264.4700106542541</v>
+        <v>7819.5873245762923</v>
       </c>
       <c r="L40">
-        <v>1299.7907554919079</v>
+        <v>2972.1358291751508</v>
       </c>
       <c r="M40">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="N40">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="O40" t="s">
         <v>60</v>
       </c>
       <c r="P40">
-        <v>0.99525229139693816</v>
+        <v>0.94860031506645615</v>
       </c>
       <c r="Q40">
-        <v>0.96663632729531646</v>
+        <v>0.93341793443731935</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>32</v>
@@ -2764,16 +2767,16 @@
         <v>19</v>
       </c>
       <c r="I41">
-        <v>0.97499999999999998</v>
+        <v>0.98966666666666669</v>
       </c>
       <c r="J41">
-        <v>0.96291666666666664</v>
+        <v>0.97333333333333338</v>
       </c>
       <c r="K41">
-        <v>4361.9283849050371</v>
+        <v>2083.4754658404509</v>
       </c>
       <c r="L41">
-        <v>1578.7844907820941</v>
+        <v>1057.9359921169939</v>
       </c>
       <c r="N41">
         <v>499</v>
@@ -2782,15 +2785,15 @@
         <v>61</v>
       </c>
       <c r="P41">
-        <v>0.97485564573484851</v>
+        <v>0.98965386686466172</v>
       </c>
       <c r="Q41">
-        <v>0.96249046646804948</v>
+        <v>0.97301884390315174</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>32</v>
@@ -2814,16 +2817,16 @@
         <v>19</v>
       </c>
       <c r="I42">
-        <v>0.97458333333333336</v>
+        <v>0.99862499999999998</v>
       </c>
       <c r="J42">
-        <v>0.96408333333333329</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="K42">
-        <v>4324.5336662522705</v>
+        <v>708.386394590539</v>
       </c>
       <c r="L42">
-        <v>1591.2126236169199</v>
+        <v>871.65542108982368</v>
       </c>
       <c r="N42">
         <v>499</v>
@@ -2832,15 +2835,15 @@
         <v>62</v>
       </c>
       <c r="P42">
-        <v>0.97445409106423198</v>
+        <v>0.99864473449775848</v>
       </c>
       <c r="Q42">
-        <v>0.96367249408604982</v>
+        <v>0.97888630026346701</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>32</v>
@@ -2864,33 +2867,36 @@
         <v>19</v>
       </c>
       <c r="I43">
-        <v>0.97583333333333333</v>
+        <v>0.99908333333333332</v>
       </c>
       <c r="J43">
-        <v>0.96316666666666662</v>
+        <v>0.97858333333333336</v>
       </c>
       <c r="K43">
-        <v>4275.4292316967121</v>
+        <v>600.53226747486633</v>
       </c>
       <c r="L43">
-        <v>1568.8706492191191</v>
+        <v>900.71893835720493</v>
+      </c>
+      <c r="M43">
+        <v>240</v>
       </c>
       <c r="N43">
-        <v>499</v>
+        <v>225</v>
       </c>
       <c r="O43" t="s">
         <v>63</v>
       </c>
       <c r="P43">
-        <v>0.97571992561868082</v>
+        <v>0.99909491212118273</v>
       </c>
       <c r="Q43">
-        <v>0.962727791517062</v>
+        <v>0.9782783915295834</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>32</v>
@@ -2914,16 +2920,16 @@
         <v>19</v>
       </c>
       <c r="I44">
-        <v>0.97347916666666667</v>
+        <v>0.98795833333333338</v>
       </c>
       <c r="J44">
-        <v>0.96133333333333337</v>
+        <v>0.97441666666666671</v>
       </c>
       <c r="K44">
-        <v>4701.3448086543704</v>
+        <v>2318.3610464115231</v>
       </c>
       <c r="L44">
-        <v>1653.0141384007809</v>
+        <v>1076.0916257085889</v>
       </c>
       <c r="N44">
         <v>499</v>
@@ -2932,15 +2938,15 @@
         <v>64</v>
       </c>
       <c r="P44">
-        <v>0.97333427876739087</v>
+        <v>0.98793887001394665</v>
       </c>
       <c r="Q44">
-        <v>0.96086190329196941</v>
+        <v>0.97410675068077912</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>32</v>
@@ -2964,16 +2970,16 @@
         <v>19</v>
       </c>
       <c r="I45">
-        <v>0.97327083333333331</v>
+        <v>0.99812500000000004</v>
       </c>
       <c r="J45">
-        <v>0.96291666666666664</v>
+        <v>0.97733333333333339</v>
       </c>
       <c r="K45">
-        <v>4650.8508135801594</v>
+        <v>845.53384268728803</v>
       </c>
       <c r="L45">
-        <v>1633.256847978982</v>
+        <v>930.94303157462343</v>
       </c>
       <c r="N45">
         <v>499</v>
@@ -2982,15 +2988,15 @@
         <v>65</v>
       </c>
       <c r="P45">
-        <v>0.97311699646942407</v>
+        <v>0.99815498826833959</v>
       </c>
       <c r="Q45">
-        <v>0.96247715637456877</v>
+        <v>0.9769964075219072</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>32</v>
@@ -3014,33 +3020,36 @@
         <v>19</v>
       </c>
       <c r="I46">
-        <v>0.97260416666666671</v>
+        <v>0.99914583333333329</v>
       </c>
       <c r="J46">
-        <v>0.96133333333333337</v>
+        <v>0.97633333333333339</v>
       </c>
       <c r="K46">
-        <v>4741.8991049030064</v>
+        <v>631.07644232831854</v>
       </c>
       <c r="L46">
-        <v>1659.49691160048</v>
+        <v>931.95065830064198</v>
+      </c>
+      <c r="M46">
+        <v>252</v>
       </c>
       <c r="N46">
-        <v>499</v>
+        <v>237</v>
       </c>
       <c r="O46" t="s">
         <v>66</v>
       </c>
       <c r="P46">
-        <v>0.9724357897688527</v>
+        <v>0.9991634096498746</v>
       </c>
       <c r="Q46">
-        <v>0.96089612815753545</v>
+        <v>0.97599642065230152</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -3064,36 +3073,36 @@
         <v>19</v>
       </c>
       <c r="I47">
-        <v>0.99910416666666668</v>
+        <v>0.99541666666666662</v>
       </c>
       <c r="J47">
-        <v>0.97650000000000003</v>
+        <v>0.9730833333333333</v>
       </c>
       <c r="K47">
-        <v>591.75225277843265</v>
+        <v>1210.3206061866649</v>
       </c>
       <c r="L47">
-        <v>1055.7378938890299</v>
+        <v>1105.1222612870581</v>
       </c>
       <c r="M47">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="N47">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="O47" t="s">
         <v>67</v>
       </c>
       <c r="P47">
-        <v>0.99912896419357222</v>
+        <v>0.99542553580281246</v>
       </c>
       <c r="Q47">
-        <v>0.97621018026578565</v>
+        <v>0.97271751845960819</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>64</v>
@@ -3117,36 +3126,36 @@
         <v>19</v>
       </c>
       <c r="I48">
-        <v>0.99935416666666665</v>
+        <v>0.98102083333333334</v>
       </c>
       <c r="J48">
-        <v>0.97691666666666666</v>
+        <v>0.95908333333333329</v>
       </c>
       <c r="K48">
-        <v>501.08198288392742</v>
+        <v>3122.055915272847</v>
       </c>
       <c r="L48">
-        <v>1037.810320399386</v>
+        <v>1657.3422978002579</v>
       </c>
       <c r="M48">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="N48">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="O48" t="s">
         <v>68</v>
       </c>
       <c r="P48">
-        <v>0.99937436360198295</v>
+        <v>0.98088860112605514</v>
       </c>
       <c r="Q48">
-        <v>0.97660108229768938</v>
+        <v>0.95843343567635308</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>64</v>
@@ -3170,36 +3179,36 @@
         <v>19</v>
       </c>
       <c r="I49">
-        <v>0.99914583333333329</v>
+        <v>0.96185416666666668</v>
       </c>
       <c r="J49">
-        <v>0.97591666666666665</v>
+        <v>0.94191666666666662</v>
       </c>
       <c r="K49">
-        <v>591.09825975346519</v>
+        <v>5944.1383398488679</v>
       </c>
       <c r="L49">
-        <v>1039.905718841818</v>
+        <v>2371.4601350310431</v>
       </c>
       <c r="M49">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="N49">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="O49" t="s">
         <v>69</v>
       </c>
       <c r="P49">
-        <v>0.99916212832308138</v>
+        <v>0.96148411835306946</v>
       </c>
       <c r="Q49">
-        <v>0.9755885342992231</v>
+        <v>0.94109864898374584</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>64</v>
@@ -3223,16 +3232,16 @@
         <v>19</v>
       </c>
       <c r="I50">
-        <v>0.97547916666666667</v>
+        <v>0.9898541666666667</v>
       </c>
       <c r="J50">
-        <v>0.96383333333333332</v>
+        <v>0.97533333333333339</v>
       </c>
       <c r="K50">
-        <v>4284.0950917548907</v>
+        <v>2069.8437592195942</v>
       </c>
       <c r="L50">
-        <v>1589.275647813482</v>
+        <v>1036.8811347361179</v>
       </c>
       <c r="N50">
         <v>499</v>
@@ -3241,15 +3250,15 @@
         <v>70</v>
       </c>
       <c r="P50">
-        <v>0.97535111707162725</v>
+        <v>0.98984264661495958</v>
       </c>
       <c r="Q50">
-        <v>0.96340551272775454</v>
+        <v>0.97502879707164014</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>64</v>
@@ -3273,16 +3282,16 @@
         <v>19</v>
       </c>
       <c r="I51">
-        <v>0.97547916666666667</v>
+        <v>0.9984791666666667</v>
       </c>
       <c r="J51">
-        <v>0.96458333333333335</v>
+        <v>0.97741666666666671</v>
       </c>
       <c r="K51">
-        <v>4298.5320101374482</v>
+        <v>725.00540767243706</v>
       </c>
       <c r="L51">
-        <v>1565.0503083125341</v>
+        <v>924.35244409160077</v>
       </c>
       <c r="N51">
         <v>499</v>
@@ -3291,15 +3300,15 @@
         <v>71</v>
       </c>
       <c r="P51">
-        <v>0.97535480292599586</v>
+        <v>0.99850688490860118</v>
       </c>
       <c r="Q51">
-        <v>0.96415875302030662</v>
+        <v>0.97710964630619923</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>64</v>
@@ -3323,33 +3332,36 @@
         <v>19</v>
       </c>
       <c r="I52">
-        <v>0.97550000000000003</v>
+        <v>0.9996666666666667</v>
       </c>
       <c r="J52">
-        <v>0.96433333333333338</v>
+        <v>0.9780833333333333</v>
       </c>
       <c r="K52">
-        <v>4275.1223874298294</v>
+        <v>452.20879784622679</v>
       </c>
       <c r="L52">
-        <v>1551.433445487922</v>
+        <v>899.59282896780712</v>
+      </c>
+      <c r="M52">
+        <v>275</v>
       </c>
       <c r="N52">
-        <v>499</v>
+        <v>260</v>
       </c>
       <c r="O52" t="s">
         <v>72</v>
       </c>
       <c r="P52">
-        <v>0.97535422420963724</v>
+        <v>0.99967653920272304</v>
       </c>
       <c r="Q52">
-        <v>0.96393802414076524</v>
+        <v>0.9777718321762876</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>64</v>
@@ -3373,16 +3385,16 @@
         <v>19</v>
       </c>
       <c r="I53">
-        <v>0.97287500000000005</v>
+        <v>0.98797916666666663</v>
       </c>
       <c r="J53">
-        <v>0.96225000000000005</v>
+        <v>0.97283333333333333</v>
       </c>
       <c r="K53">
-        <v>4745.3723974221066</v>
+        <v>2337.910417688453</v>
       </c>
       <c r="L53">
-        <v>1657.4716014543901</v>
+        <v>1079.4784864609121</v>
       </c>
       <c r="N53">
         <v>499</v>
@@ -3391,15 +3403,15 @@
         <v>73</v>
       </c>
       <c r="P53">
-        <v>0.97273491091313213</v>
+        <v>0.98795165043991484</v>
       </c>
       <c r="Q53">
-        <v>0.96180645542111765</v>
+        <v>0.97245765032796894</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>64</v>
@@ -3423,16 +3435,16 @@
         <v>19</v>
       </c>
       <c r="I54">
-        <v>0.97272916666666664</v>
+        <v>0.99804166666666672</v>
       </c>
       <c r="J54">
-        <v>0.96358333333333335</v>
+        <v>0.97675000000000001</v>
       </c>
       <c r="K54">
-        <v>4707.3858516698092</v>
+        <v>862.32162719974542</v>
       </c>
       <c r="L54">
-        <v>1641.96619999577</v>
+        <v>925.57819402717007</v>
       </c>
       <c r="N54">
         <v>499</v>
@@ -3441,15 +3453,15 @@
         <v>74</v>
       </c>
       <c r="P54">
-        <v>0.97256739012161453</v>
+        <v>0.99805916882805157</v>
       </c>
       <c r="Q54">
-        <v>0.96317224012579516</v>
+        <v>0.97640699843296519</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>64</v>
@@ -3473,28 +3485,31 @@
         <v>19</v>
       </c>
       <c r="I55">
-        <v>0.97289583333333329</v>
+        <v>0.99941666666666662</v>
       </c>
       <c r="J55">
-        <v>0.96216666666666661</v>
+        <v>0.97975000000000001</v>
       </c>
       <c r="K55">
-        <v>4733.0693880676272</v>
+        <v>501.2297437142488</v>
       </c>
       <c r="L55">
-        <v>1649.28611014542</v>
+        <v>876.94903155554721</v>
+      </c>
+      <c r="M55">
+        <v>282</v>
       </c>
       <c r="N55">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="O55" t="s">
         <v>75</v>
       </c>
       <c r="P55">
-        <v>0.97274723885428427</v>
+        <v>0.99942512799353067</v>
       </c>
       <c r="Q55">
-        <v>0.9617428218296038</v>
+        <v>0.97948839782573016</v>
       </c>
     </row>
   </sheetData>
@@ -3503,27 +3518,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6B9221-18CB-460F-A37A-6B1E77BCF50B}">
-  <dimension ref="A1:Q60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828703DB-C72E-4960-861F-4DABB1E0BE75}">
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3539,43 +3557,34 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>32</v>
@@ -3589,31 +3598,34 @@
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3">
-        <v>0.99331250000000004</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.96924999999999994</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1598.063993652011</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1278.746900176581</v>
+      <c r="F2" s="4">
+        <v>0.9945208333333333</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.96875</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1364.7610363869401</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1244.4642675519531</v>
       </c>
       <c r="J2" s="3">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K2" s="3">
-        <v>85</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>47.64</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.99452102263184039</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.96837438395425868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>32</v>
@@ -3627,31 +3639,34 @@
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.99443749999999997</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.9694166666666667</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1406.5969821857191</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1320.4318041996289</v>
+      <c r="F3" s="4">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2656.9509883392561</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1544.329360646298</v>
       </c>
       <c r="J3" s="3">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="K3" s="3">
-        <v>98</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>30.23</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.98490271590426581</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.96149293883212472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>32</v>
@@ -3665,31 +3680,34 @@
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3">
-        <v>0.99456250000000002</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.97141666666666671</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1407.978728678057</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1250.800411864657</v>
+      <c r="F4" s="4">
+        <v>0.97418749999999998</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.95683333333333331</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4141.0212636413926</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1792.459626427067</v>
       </c>
       <c r="J4" s="3">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="K4" s="3">
-        <v>95</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>17.55</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.97396919425553852</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.95619626538844338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>32</v>
@@ -3703,28 +3721,34 @@
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3">
-        <v>0.9712291666666667</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.95983333333333332</v>
-      </c>
-      <c r="H5" s="3">
-        <v>4898.636721702359</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1733.981032919738</v>
+      <c r="F5" s="4">
+        <v>0.98502083333333335</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.96891666666666665</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2902.6840843735872</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1279.8147116945349</v>
+      </c>
+      <c r="J5" s="3">
+        <v>499</v>
       </c>
       <c r="K5" s="3">
-        <v>499</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>361.25</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.98495932138304099</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.9685692418631715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>32</v>
@@ -3738,28 +3762,34 @@
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="3">
-        <v>0.97041666666666671</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.95758333333333334</v>
-      </c>
-      <c r="H6" s="3">
-        <v>5049.7371394135334</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1776.4617176003851</v>
+      <c r="F6" s="4">
+        <v>0.99383333333333335</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.97075</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1551.7590045497061</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1197.584804307086</v>
+      </c>
+      <c r="J6" s="3">
+        <v>476</v>
       </c>
       <c r="K6" s="3">
-        <v>499</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>346.53</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.99384697237353037</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.97036335221466974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>32</v>
@@ -3773,28 +3803,34 @@
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3">
-        <v>0.97216666666666662</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.95908333333333329</v>
-      </c>
-      <c r="H7" s="3">
-        <v>4832.9992793436249</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1679.1795826858499</v>
+      <c r="F7" s="4">
+        <v>0.99393750000000003</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.97091666666666665</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1550.5060944583529</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1234.688775036695</v>
+      </c>
+      <c r="J7" s="3">
+        <v>186</v>
       </c>
       <c r="K7" s="3">
-        <v>499</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>144.22</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.99395105446442211</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.97055362008499557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>32</v>
@@ -3808,28 +3844,34 @@
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="3">
-        <v>0.96956249999999999</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.95816666666666672</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5159.3709918500936</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1768.3449242450231</v>
+      <c r="F8" s="4">
+        <v>0.98256250000000001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.9664166666666667</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3168.318808456318</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1330.5393576830679</v>
+      </c>
+      <c r="J8" s="3">
+        <v>499</v>
       </c>
       <c r="K8" s="3">
-        <v>499</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>361.34</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.98246611084534086</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.96596182535592967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>32</v>
@@ -3843,28 +3885,34 @@
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="3">
-        <v>0.9692708333333333</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.95866666666666667</v>
-      </c>
-      <c r="H9" s="3">
-        <v>5191.5728491297832</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1780.3753063142631</v>
+      <c r="F9" s="4">
+        <v>0.99406249999999996</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.97258333333333336</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1489.3696737313439</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1170.4537298347741</v>
+      </c>
+      <c r="J9" s="3">
+        <v>499</v>
       </c>
       <c r="K9" s="3">
-        <v>499</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>325.14999999999998</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.99407096640592163</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.97223216808273549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>32</v>
@@ -3878,44 +3926,34 @@
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="3">
-        <v>0.96695833333333336</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.95625000000000004</v>
-      </c>
-      <c r="H10" s="3">
-        <v>5587.7962229743262</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1866.3937196644949</v>
+      <c r="F10" s="4">
+        <v>0.99429166666666668</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1534.945672651603</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1212.6116977379199</v>
+      </c>
+      <c r="J10" s="3">
+        <v>208</v>
       </c>
       <c r="K10" s="3">
-        <v>499</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10">
-        <f>AVERAGE(G2:G10)</f>
-        <v>0.96218518518518514</v>
-      </c>
-      <c r="O10">
-        <f>_xlfn.STDEV.S(G2:G10)</f>
-        <v>5.9949020266091045E-3</v>
-      </c>
-      <c r="P10">
-        <f>AVERAGE(I2:I10)</f>
-        <v>1606.0794888522912</v>
-      </c>
-      <c r="Q10">
-        <f>_xlfn.STDEV.S(I2:I10)</f>
-        <v>247.53019531451025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>144.41</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.99428450928382228</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.96961154851811759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
         <v>64</v>
@@ -3929,31 +3967,34 @@
       <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="3">
-        <v>0.99214583333333328</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.96858333333333335</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1764.5142400505499</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1422.3208300648471</v>
+      <c r="F12" s="4">
+        <v>0.99470833333333331</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.96958333333333335</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1342.175668959718</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1179.5713256965471</v>
       </c>
       <c r="J12" s="3">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K12" s="3">
-        <v>81</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>48.49</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.99470219412163452</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.96916970203999886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
         <v>64</v>
@@ -3967,31 +4008,34 @@
       <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="3">
-        <v>0.99395833333333339</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.96875</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1546.371601753473</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1316.326923358552</v>
+      <c r="F13" s="4">
+        <v>0.98858333333333337</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.96766666666666667</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2128.9547442203452</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1268.6858947677561</v>
       </c>
       <c r="J13" s="3">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="K13" s="3">
-        <v>93</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25.72</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.98848697653395323</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.96716718175508609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3">
         <v>64</v>
@@ -4005,31 +4049,34 @@
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="3">
-        <v>0.99427083333333333</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1477.165707136222</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1278.448121069516</v>
+      <c r="F14" s="4">
+        <v>0.98435416666666664</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.96625000000000005</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2611.0152246774201</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1329.0614011515579</v>
       </c>
       <c r="J14" s="3">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="K14" s="3">
-        <v>89</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.98425199475339264</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.96580741960320116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3">
         <v>64</v>
@@ -4043,28 +4090,34 @@
       <c r="E15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="3">
-        <v>0.97162499999999996</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.95816666666666672</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4885.5387754303638</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1729.8407763732239</v>
+      <c r="F15" s="4">
+        <v>0.98464583333333333</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.96825000000000006</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2933.6137148275052</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1318.355546445938</v>
+      </c>
+      <c r="J15" s="3">
+        <v>499</v>
       </c>
       <c r="K15" s="3">
-        <v>499</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>365.12</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.98454861920553327</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.96787740246065435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3">
         <v>64</v>
@@ -4078,28 +4131,34 @@
       <c r="E16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="3">
-        <v>0.9702291666666667</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.95925000000000005</v>
-      </c>
-      <c r="H16" s="3">
-        <v>5063.1128892734887</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1763.5330860671299</v>
+      <c r="F16" s="4">
+        <v>0.99470833333333331</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.97016666666666662</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1428.939800950073</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1216.426839235954</v>
+      </c>
+      <c r="J16" s="3">
+        <v>489</v>
       </c>
       <c r="K16" s="3">
-        <v>499</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>381.34</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.99472693185880734</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.96981916676163293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3">
         <v>64</v>
@@ -4113,28 +4172,34 @@
       <c r="E17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="3">
-        <v>0.9722291666666667</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.95974999999999999</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4787.7037938619933</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1742.1158359253191</v>
+      <c r="F17" s="4">
+        <v>0.99502083333333335</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.9700833333333333</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1378.749418164708</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1194.912470014719</v>
+      </c>
+      <c r="J17" s="3">
+        <v>204</v>
       </c>
       <c r="K17" s="3">
-        <v>499</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>162.01</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.99502765788534508</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.96967974093791898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3">
         <v>64</v>
@@ -4148,28 +4213,34 @@
       <c r="E18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="3">
-        <v>0.96968750000000004</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5262.8468639767179</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1810.28497503783</v>
+      <c r="F18" s="4">
+        <v>0.98297916666666663</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.96675</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3178.4910358012748</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1365.347771633614</v>
+      </c>
+      <c r="J18" s="3">
+        <v>499</v>
       </c>
       <c r="K18" s="3">
-        <v>499</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>365.75</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.98291255432628299</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.96639175515975995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
         <v>64</v>
@@ -4183,28 +4254,34 @@
       <c r="E19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="3">
-        <v>0.96931250000000002</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.95708333333333329</v>
-      </c>
-      <c r="H19" s="3">
-        <v>5297.7463020146688</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1785.350989724526</v>
+      <c r="F19" s="4">
+        <v>0.99379166666666663</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.97258333333333336</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1533.014686199441</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1134.524943384826</v>
+      </c>
+      <c r="J19" s="3">
+        <v>499</v>
       </c>
       <c r="K19" s="3">
-        <v>499</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>367.71</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.99379329451808829</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.97220622386116262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3">
         <v>64</v>
@@ -4218,44 +4295,34 @@
       <c r="E20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="3">
-        <v>0.96847916666666667</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.95816666666666672</v>
-      </c>
-      <c r="H20" s="3">
-        <v>5357.7617827524782</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1815.5225749353269</v>
+      <c r="F20" s="4">
+        <v>0.99327083333333333</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1622.043779646943</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1220.475218771232</v>
+      </c>
+      <c r="J20" s="3">
+        <v>200</v>
       </c>
       <c r="K20" s="3">
-        <v>499</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N20">
-        <f>AVERAGE(G12:G20)</f>
-        <v>0.96163888888888893</v>
-      </c>
-      <c r="O20">
-        <f>_xlfn.STDEV.S(G12:G20)</f>
-        <v>5.4648497997047737E-3</v>
-      </c>
-      <c r="P20">
-        <f>AVERAGE(I12:I20)</f>
-        <v>1629.3049013951413</v>
-      </c>
-      <c r="Q20">
-        <f>_xlfn.STDEV.S(I12:I20)</f>
-        <v>222.63486535290667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>160.41999999999999</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.99325992334210311</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.96854005621319439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3">
         <v>32</v>
@@ -4269,31 +4336,34 @@
       <c r="E22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="3">
-        <v>0.99685416666666671</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.97158333333333335</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1037.4253273253289</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1221.242374902545</v>
+      <c r="F22" s="4">
+        <v>0.98483333333333334</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2678.866654337553</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1617.3687269470611</v>
       </c>
       <c r="J22" s="3">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="K22" s="3">
-        <v>107</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>86.4</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.98473442926613131</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.95941803517172575</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3">
         <v>32</v>
@@ -4307,31 +4377,34 @@
       <c r="E23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="3">
-        <v>0.99420833333333336</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.96875</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1399.0397512115139</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1336.561257928827</v>
+      <c r="F23" s="4">
+        <v>0.94787500000000002</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.93266666666666664</v>
+      </c>
+      <c r="H23" s="4">
+        <v>8605.9907871267042</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3004.2319430681978</v>
       </c>
       <c r="J23" s="3">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="K23" s="3">
-        <v>110</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.94725117238350676</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.93141174969044638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3">
         <v>32</v>
@@ -4345,31 +4418,34 @@
       <c r="E24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="3">
-        <v>0.99729166666666669</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.97216666666666662</v>
-      </c>
-      <c r="H24" s="3">
-        <v>958.55532130422489</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1230.876465922019</v>
+      <c r="F24" s="4">
+        <v>0.96387500000000004</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.94191666666666662</v>
+      </c>
+      <c r="H24" s="4">
+        <v>5907.1564098114723</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2678.4522213731661</v>
       </c>
       <c r="J24" s="3">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="K24" s="3">
-        <v>108</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>77.510000000000005</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.96335324144727108</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.94089118401077365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3">
         <v>32</v>
@@ -4383,98 +4459,116 @@
       <c r="E25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="3">
-        <v>0.97475000000000001</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.96183333333333332</v>
-      </c>
-      <c r="H25" s="3">
-        <v>4451.4185424591724</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1588.0742659859379</v>
+      <c r="F25" s="4">
+        <v>0.98856250000000001</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.97191666666666665</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2293.030568538788</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1115.8963252487999</v>
+      </c>
+      <c r="J25" s="3">
+        <v>499</v>
       </c>
       <c r="K25" s="3">
+        <v>606.03</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0.98852934726125308</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.97152906756193202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8">
+        <v>32</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.99797916666666664</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.97675000000000001</v>
+      </c>
+      <c r="H26" s="9">
+        <v>899.00038069346806</v>
+      </c>
+      <c r="I26" s="9">
+        <v>964.55652421783077</v>
+      </c>
+      <c r="J26" s="8">
         <v>499</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>82</v>
-      </c>
-      <c r="B26" s="3">
+      <c r="K26" s="8">
+        <v>634.80999999999995</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0.99801021497388798</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0.97640775357407716</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8">
         <v>32</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="8">
         <v>1E-4</v>
       </c>
-      <c r="D26" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="D27" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="3">
-        <v>0.9745625</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0.96116666666666661</v>
-      </c>
-      <c r="H26" s="3">
-        <v>4441.4667959537883</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1620.237673625254</v>
-      </c>
-      <c r="K26" s="3">
-        <v>499</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>83</v>
-      </c>
-      <c r="B27" s="3">
-        <v>32</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.97441666666666671</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0.96358333333333335</v>
-      </c>
-      <c r="H27" s="3">
-        <v>4443.4249370535445</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1593.9083909793301</v>
-      </c>
-      <c r="K27" s="3">
-        <v>499</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F27" s="9">
+        <v>0.9985208333333333</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H27" s="9">
+        <v>741.00710340115131</v>
+      </c>
+      <c r="I27" s="9">
+        <v>988.92077033717828</v>
+      </c>
+      <c r="J27" s="8">
+        <v>227</v>
+      </c>
+      <c r="K27" s="8">
+        <v>320.02</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0.99853874777303486</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0.97567572080143616</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B28" s="3">
         <v>32</v>
@@ -4488,28 +4582,34 @@
       <c r="E28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="3">
-        <v>0.97170833333333329</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0.95950000000000002</v>
-      </c>
-      <c r="H28" s="3">
-        <v>4931.765110982049</v>
-      </c>
-      <c r="I28" s="3">
-        <v>1703.9123740462051</v>
+      <c r="F28" s="4">
+        <v>0.98612500000000003</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2611.1361219517512</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1144.5713370331689</v>
+      </c>
+      <c r="J28" s="3">
+        <v>499</v>
       </c>
       <c r="K28" s="3">
-        <v>499</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>636.04999999999995</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.98606493542710427</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.97122830695547757</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B29" s="3">
         <v>32</v>
@@ -4523,155 +4623,157 @@
       <c r="E29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="3">
-        <v>0.97272916666666664</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0.96225000000000005</v>
-      </c>
-      <c r="H29" s="3">
-        <v>4724.2544914481177</v>
-      </c>
-      <c r="I29" s="3">
-        <v>1647.445253314439</v>
+      <c r="F29" s="4">
+        <v>0.99691666666666667</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.97566666666666668</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1047.0323368043821</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1023.610290054893</v>
+      </c>
+      <c r="J29" s="3">
+        <v>499</v>
       </c>
       <c r="K29" s="3">
-        <v>499</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>86</v>
-      </c>
-      <c r="B30" s="3">
+        <v>680.01</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0.99693018328210492</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.97535071265760109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8">
         <v>32</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="8">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="8">
         <v>0.9</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="3">
-        <v>0.97264583333333332</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0.96033333333333337</v>
-      </c>
-      <c r="H30" s="3">
-        <v>4725.591032891959</v>
-      </c>
-      <c r="I30" s="3">
-        <v>1683.1096276447349</v>
-      </c>
-      <c r="K30" s="3">
-        <v>499</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N30">
-        <f>AVERAGE(G22:G30)</f>
-        <v>0.96457407407407403</v>
-      </c>
-      <c r="O30">
-        <f>_xlfn.STDEV.S(G22:G30)</f>
-        <v>4.9174512870483779E-3</v>
-      </c>
-      <c r="P30">
-        <f>AVERAGE(I22:I30)</f>
-        <v>1513.9297427054769</v>
-      </c>
-      <c r="Q30">
-        <f>_xlfn.STDEV.S(I22:I30)</f>
-        <v>194.60910439334754</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>87</v>
-      </c>
-      <c r="B32" s="3">
+      <c r="F30" s="9">
+        <v>0.99810416666666668</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.97541666666666671</v>
+      </c>
+      <c r="H30" s="9">
+        <v>834.9615726310268</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1003.246929165117</v>
+      </c>
+      <c r="J30" s="8">
+        <v>232</v>
+      </c>
+      <c r="K30" s="8">
+        <v>326.45</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0.99813096273983282</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0.97503535049730827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>27</v>
+      </c>
+      <c r="B32" s="8">
         <v>64</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="8">
         <v>2E-3</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="8">
         <v>0.5</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="3">
-        <v>0.99814583333333329</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.97524999999999995</v>
-      </c>
-      <c r="H32" s="3">
-        <v>804.3862238894925</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1129.9594986095469</v>
-      </c>
-      <c r="J32" s="3">
-        <v>122</v>
-      </c>
-      <c r="K32" s="3">
-        <v>107</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>88</v>
-      </c>
-      <c r="B33" s="3">
+      <c r="F32" s="9">
+        <v>0.99818750000000001</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="H32" s="9">
+        <v>768.82798866942801</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1053.0041337530561</v>
+      </c>
+      <c r="J32" s="8">
+        <v>57</v>
+      </c>
+      <c r="K32" s="8">
+        <v>79.040000000000006</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0.99821435903375</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0.9736578785909904</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>28</v>
+      </c>
+      <c r="B33" s="8">
         <v>64</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="8">
         <v>2E-3</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="8">
         <v>0.75</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="3">
-        <v>0.99770833333333331</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0.97350000000000003</v>
-      </c>
-      <c r="H33" s="3">
-        <v>865.20845920455133</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1150.547265772788</v>
-      </c>
-      <c r="J33" s="3">
-        <v>117</v>
-      </c>
-      <c r="K33" s="3">
-        <v>102</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F33" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H33" s="9">
+        <v>697.90523879157843</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1170.731988460157</v>
+      </c>
+      <c r="J33" s="8">
+        <v>39</v>
+      </c>
+      <c r="K33" s="8">
+        <v>62.75</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0.99800887524252158</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0.97162291707954473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B34" s="3">
         <v>64</v>
@@ -4685,31 +4787,34 @@
       <c r="E34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="3">
-        <v>0.99858333333333338</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="H34" s="3">
-        <v>720.09502027890255</v>
-      </c>
-      <c r="I34" s="3">
-        <v>1112.7013778648229</v>
+      <c r="F34" s="4">
+        <v>0.98168750000000005</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.96391666666666664</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2950.0776996779459</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1506.302118777081</v>
       </c>
       <c r="J34" s="3">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="K34" s="3">
-        <v>112</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>31.81</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0.98156740924875463</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0.96340804028406046</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3">
         <v>64</v>
@@ -4723,98 +4828,116 @@
       <c r="E35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="3">
-        <v>0.97535416666666663</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="H35" s="3">
-        <v>4304.5265599024979</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1569.176112483784</v>
+      <c r="F35" s="4">
+        <v>0.98806249999999995</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.97291666666666665</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2309.040186149331</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1096.392641711589</v>
+      </c>
+      <c r="J35" s="3">
+        <v>499</v>
       </c>
       <c r="K35" s="3">
+        <v>641.79</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0.98804086829123339</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0.97257133466844414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>31</v>
+      </c>
+      <c r="B36" s="8">
+        <v>64</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0.99754166666666666</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0.97441666666666671</v>
+      </c>
+      <c r="H36" s="9">
+        <v>919.51213414222104</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1055.8791471870461</v>
+      </c>
+      <c r="J36" s="8">
         <v>499</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>91</v>
-      </c>
-      <c r="B36" s="3">
+      <c r="K36" s="8">
+        <v>711.84</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0.99757015498109447</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0.97405523413573147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>32</v>
+      </c>
+      <c r="B37" s="8">
         <v>64</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C37" s="8">
         <v>1E-4</v>
       </c>
-      <c r="D36" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="D37" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="3">
-        <v>0.97497916666666662</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0.96166666666666667</v>
-      </c>
-      <c r="H36" s="3">
-        <v>4388.8553491884441</v>
-      </c>
-      <c r="I36" s="3">
-        <v>1607.101010958218</v>
-      </c>
-      <c r="K36" s="3">
-        <v>499</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>92</v>
-      </c>
-      <c r="B37" s="3">
-        <v>64</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.97418749999999998</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0.96274999999999999</v>
-      </c>
-      <c r="H37" s="3">
-        <v>4439.8447268945229</v>
-      </c>
-      <c r="I37" s="3">
-        <v>1612.963498946167</v>
-      </c>
-      <c r="K37" s="3">
-        <v>499</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F37" s="9">
+        <v>0.99924999999999997</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.97641666666666671</v>
+      </c>
+      <c r="H37" s="9">
+        <v>620.22688246933092</v>
+      </c>
+      <c r="I37" s="9">
+        <v>964.22745312286656</v>
+      </c>
+      <c r="J37" s="8">
+        <v>248</v>
+      </c>
+      <c r="K37" s="8">
+        <v>285.58999999999997</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0.99926570798194925</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0.97617482456936067</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B38" s="3">
         <v>64</v>
@@ -4828,28 +4951,34 @@
       <c r="E38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="3">
-        <v>0.97164583333333332</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0.95983333333333332</v>
-      </c>
-      <c r="H38" s="3">
-        <v>4867.4467624695053</v>
-      </c>
-      <c r="I38" s="3">
-        <v>1700.471079307491</v>
+      <c r="F38" s="4">
+        <v>0.98583333333333334</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="H38" s="4">
+        <v>2651.660041885717</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1157.566703512377</v>
+      </c>
+      <c r="J38" s="3">
+        <v>499</v>
       </c>
       <c r="K38" s="3">
-        <v>499</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>530.46</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0.98578601022050982</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0.97118150154888405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B39" s="3">
         <v>64</v>
@@ -4863,79 +4992,75 @@
       <c r="E39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="3">
-        <v>0.97150000000000003</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0.96091666666666664</v>
-      </c>
-      <c r="H39" s="3">
-        <v>4794.4734062389898</v>
-      </c>
-      <c r="I39" s="3">
-        <v>1677.849321933908</v>
+      <c r="F39" s="4">
+        <v>0.99716666666666665</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.97466666666666668</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1054.7422025160761</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1021.468012653555</v>
+      </c>
+      <c r="J39" s="3">
+        <v>499</v>
       </c>
       <c r="K39" s="3">
-        <v>499</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>95</v>
-      </c>
-      <c r="B40" s="3">
+        <v>526.19000000000005</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0.99719064174902816</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0.97434081394088889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>35</v>
+      </c>
+      <c r="B40" s="8">
         <v>64</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="8">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="8">
         <v>0.9</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="3">
-        <v>0.97283333333333333</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0.96225000000000005</v>
-      </c>
-      <c r="H40" s="3">
-        <v>4636.0260090819665</v>
-      </c>
-      <c r="I40" s="3">
-        <v>1636.42720732061</v>
-      </c>
-      <c r="K40" s="3">
-        <v>499</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N40">
-        <f>AVERAGE(G32:G40)</f>
-        <v>0.96601851851851839</v>
-      </c>
-      <c r="O40">
-        <f>_xlfn.STDEV.S(G32:G40)</f>
-        <v>6.2956358586085219E-3</v>
-      </c>
-      <c r="P40">
-        <f>AVERAGE(I32:I40)</f>
-        <v>1466.3551525774817</v>
-      </c>
-      <c r="Q40">
-        <f>_xlfn.STDEV.S(I32:I40)</f>
-        <v>254.53579268012189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F40" s="9">
+        <v>0.99889583333333332</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0.9750833333333333</v>
+      </c>
+      <c r="H40" s="9">
+        <v>668.53247656123858</v>
+      </c>
+      <c r="I40" s="9">
+        <v>969.99421896659521</v>
+      </c>
+      <c r="J40" s="8">
+        <v>264</v>
+      </c>
+      <c r="K40" s="8">
+        <v>295.19</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0.99891011744235669</v>
+      </c>
+      <c r="M40" s="9">
+        <v>0.9747257429548325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B42" s="3">
         <v>32</v>
@@ -4949,31 +5074,34 @@
       <c r="E42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="3">
-        <v>0.99837500000000001</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0.97350000000000003</v>
-      </c>
-      <c r="H42" s="3">
-        <v>771.99521863255097</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1135.1916377969051</v>
+      <c r="F42" s="4">
+        <v>0.97691666666666666</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.95591666666666664</v>
+      </c>
+      <c r="H42" s="4">
+        <v>3951.2206101245069</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1864.080920129094</v>
       </c>
       <c r="J42" s="3">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="K42" s="3">
-        <v>114</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>130.06</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0.97676385627946138</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0.95531570423108259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B43" s="3">
         <v>32</v>
@@ -4987,31 +5115,34 @@
       <c r="E43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="3">
-        <v>0.99585416666666671</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0.96916666666666662</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1153.798702677818</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1229.361885179203</v>
+      <c r="F43" s="4">
+        <v>0.9672708333333333</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.94658333333333333</v>
+      </c>
+      <c r="H43" s="4">
+        <v>5254.5705063850983</v>
+      </c>
+      <c r="I43" s="4">
+        <v>2256.6947783550991</v>
       </c>
       <c r="J43" s="3">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="K43" s="3">
-        <v>108</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>95.01</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0.96695429869572469</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0.94578109621730655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B44" s="3">
         <v>32</v>
@@ -5025,31 +5156,34 @@
       <c r="E44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F44" s="3">
-        <v>0.99522916666666672</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1264.4700106542541</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1299.7907554919079</v>
+      <c r="F44" s="4">
+        <v>0.94927083333333329</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.93441666666666667</v>
+      </c>
+      <c r="H44" s="4">
+        <v>7819.5873245762923</v>
+      </c>
+      <c r="I44" s="4">
+        <v>2972.1358291751508</v>
       </c>
       <c r="J44" s="3">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="K44" s="3">
-        <v>99</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>88.85</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0.94860031506645615</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0.93341793443731935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B45" s="3">
         <v>32</v>
@@ -5063,98 +5197,116 @@
       <c r="E45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="3">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0.96291666666666664</v>
-      </c>
-      <c r="H45" s="3">
-        <v>4361.9283849050371</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1578.7844907820941</v>
+      <c r="F45" s="4">
+        <v>0.98966666666666669</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.97333333333333338</v>
+      </c>
+      <c r="H45" s="4">
+        <v>2083.4754658404509</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1057.9359921169939</v>
+      </c>
+      <c r="J45" s="3">
+        <v>499</v>
       </c>
       <c r="K45" s="3">
+        <v>956.05</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0.98965386686466172</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0.97301884390315174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>40</v>
+      </c>
+      <c r="B46" s="8">
+        <v>32</v>
+      </c>
+      <c r="C46" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="9">
+        <v>0.99862499999999998</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="H46" s="9">
+        <v>708.386394590539</v>
+      </c>
+      <c r="I46" s="9">
+        <v>871.65542108982368</v>
+      </c>
+      <c r="J46" s="8">
         <v>499</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>100</v>
-      </c>
-      <c r="B46" s="3">
+      <c r="K46" s="8">
+        <v>1007.75</v>
+      </c>
+      <c r="L46" s="9">
+        <v>0.99864473449775848</v>
+      </c>
+      <c r="M46" s="9">
+        <v>0.97888630026346701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>41</v>
+      </c>
+      <c r="B47" s="8">
         <v>32</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C47" s="8">
         <v>1E-4</v>
       </c>
-      <c r="D46" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="D47" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="3">
-        <v>0.97458333333333336</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0.96408333333333329</v>
-      </c>
-      <c r="H46" s="3">
-        <v>4324.5336662522705</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1591.2126236169199</v>
-      </c>
-      <c r="K46" s="3">
-        <v>499</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>101</v>
-      </c>
-      <c r="B47" s="3">
-        <v>32</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0.97583333333333333</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0.96316666666666662</v>
-      </c>
-      <c r="H47" s="3">
-        <v>4275.4292316967121</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1568.8706492191191</v>
-      </c>
-      <c r="K47" s="3">
-        <v>499</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F47" s="9">
+        <v>0.99908333333333332</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0.97858333333333336</v>
+      </c>
+      <c r="H47" s="9">
+        <v>600.53226747486633</v>
+      </c>
+      <c r="I47" s="9">
+        <v>900.71893835720493</v>
+      </c>
+      <c r="J47" s="8">
+        <v>225</v>
+      </c>
+      <c r="K47" s="8">
+        <v>500.12</v>
+      </c>
+      <c r="L47" s="9">
+        <v>0.99909491212118273</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0.9782783915295834</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B48" s="3">
         <v>32</v>
@@ -5168,28 +5320,34 @@
       <c r="E48" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F48" s="3">
-        <v>0.97347916666666667</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0.96133333333333337</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4701.3448086543704</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1653.0141384007809</v>
+      <c r="F48" s="4">
+        <v>0.98795833333333338</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.97441666666666671</v>
+      </c>
+      <c r="H48" s="4">
+        <v>2318.3610464115231</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1076.0916257085889</v>
+      </c>
+      <c r="J48" s="3">
+        <v>499</v>
       </c>
       <c r="K48" s="3">
-        <v>499</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>983.78</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0.98793887001394665</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0.97410675068077912</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B49" s="3">
         <v>32</v>
@@ -5203,79 +5361,75 @@
       <c r="E49" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="3">
-        <v>0.97327083333333331</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0.96291666666666664</v>
-      </c>
-      <c r="H49" s="3">
-        <v>4650.8508135801594</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1633.256847978982</v>
+      <c r="F49" s="4">
+        <v>0.99812500000000004</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.97733333333333339</v>
+      </c>
+      <c r="H49" s="4">
+        <v>845.53384268728803</v>
+      </c>
+      <c r="I49" s="4">
+        <v>930.94303157462343</v>
+      </c>
+      <c r="J49" s="3">
+        <v>499</v>
       </c>
       <c r="K49" s="3">
-        <v>499</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>104</v>
-      </c>
-      <c r="B50" s="3">
+        <v>957.88</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0.99815498826833959</v>
+      </c>
+      <c r="M49" s="4">
+        <v>0.9769964075219072</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>44</v>
+      </c>
+      <c r="B50" s="8">
         <v>32</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="8">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="8">
         <v>0.9</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="3">
-        <v>0.97260416666666671</v>
-      </c>
-      <c r="G50" s="3">
-        <v>0.96133333333333337</v>
-      </c>
-      <c r="H50" s="3">
-        <v>4741.8991049030064</v>
-      </c>
-      <c r="I50" s="3">
-        <v>1659.49691160048</v>
-      </c>
-      <c r="K50" s="3">
-        <v>499</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N50">
-        <f>AVERAGE(G42:G50)</f>
-        <v>0.96504629629629635</v>
-      </c>
-      <c r="O50">
-        <f>_xlfn.STDEV.S(G42:G50)</f>
-        <v>4.0829317640787791E-3</v>
-      </c>
-      <c r="P50">
-        <f>AVERAGE(I42:I50)</f>
-        <v>1483.2199933407101</v>
-      </c>
-      <c r="Q50">
-        <f>_xlfn.STDEV.S(I42:I50)</f>
-        <v>203.02698041604253</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F50" s="9">
+        <v>0.99914583333333329</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0.97633333333333339</v>
+      </c>
+      <c r="H50" s="9">
+        <v>631.07644232831854</v>
+      </c>
+      <c r="I50" s="9">
+        <v>931.95065830064198</v>
+      </c>
+      <c r="J50" s="8">
+        <v>237</v>
+      </c>
+      <c r="K50" s="8">
+        <v>487.33</v>
+      </c>
+      <c r="L50" s="9">
+        <v>0.9991634096498746</v>
+      </c>
+      <c r="M50" s="9">
+        <v>0.97599642065230152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B52" s="3">
         <v>64</v>
@@ -5289,69 +5443,75 @@
       <c r="E52" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="3">
-        <v>0.99910416666666668</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0.97650000000000003</v>
-      </c>
-      <c r="H52" s="3">
-        <v>591.75225277843265</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1055.7378938890299</v>
+      <c r="F52" s="4">
+        <v>0.99541666666666662</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0.9730833333333333</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1210.3206061866649</v>
+      </c>
+      <c r="I52" s="4">
+        <v>1105.1222612870581</v>
       </c>
       <c r="J52" s="3">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="K52" s="3">
-        <v>112</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>106</v>
-      </c>
-      <c r="B53" s="4">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0.99542553580281246</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0.97271751845960819</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>46</v>
+      </c>
+      <c r="B53" s="3">
         <v>64</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>2E-3</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <v>0.75</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F53" s="4">
-        <v>0.99935416666666665</v>
+        <v>0.98102083333333334</v>
       </c>
       <c r="G53" s="4">
-        <v>0.97691666666666666</v>
+        <v>0.95908333333333329</v>
       </c>
       <c r="H53" s="4">
-        <v>501.08198288392742</v>
+        <v>3122.055915272847</v>
       </c>
       <c r="I53" s="4">
-        <v>1037.810320399386</v>
-      </c>
-      <c r="J53" s="4">
-        <v>139</v>
-      </c>
-      <c r="K53" s="4">
-        <v>124</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1657.3422978002579</v>
+      </c>
+      <c r="J53" s="3">
+        <v>25</v>
+      </c>
+      <c r="K53" s="3">
+        <v>87.23</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0.98088860112605514</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0.95843343567635308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B54" s="3">
         <v>64</v>
@@ -5365,31 +5525,34 @@
       <c r="E54" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F54" s="3">
-        <v>0.99914583333333329</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0.97591666666666665</v>
-      </c>
-      <c r="H54" s="3">
-        <v>591.09825975346519</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1039.905718841818</v>
+      <c r="F54" s="4">
+        <v>0.96185416666666668</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0.94191666666666662</v>
+      </c>
+      <c r="H54" s="4">
+        <v>5944.1383398488679</v>
+      </c>
+      <c r="I54" s="4">
+        <v>2371.4601350310431</v>
       </c>
       <c r="J54" s="3">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="K54" s="3">
-        <v>112</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+        <v>68.84</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0.96148411835306946</v>
+      </c>
+      <c r="M54" s="4">
+        <v>0.94109864898374584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B55" s="3">
         <v>64</v>
@@ -5403,98 +5566,116 @@
       <c r="E55" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="3">
-        <v>0.97547916666666667</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0.96383333333333332</v>
-      </c>
-      <c r="H55" s="3">
-        <v>4284.0950917548907</v>
-      </c>
-      <c r="I55" s="3">
-        <v>1589.275647813482</v>
+      <c r="F55" s="4">
+        <v>0.9898541666666667</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0.97533333333333339</v>
+      </c>
+      <c r="H55" s="4">
+        <v>2069.8437592195942</v>
+      </c>
+      <c r="I55" s="4">
+        <v>1036.8811347361179</v>
+      </c>
+      <c r="J55" s="3">
+        <v>499</v>
       </c>
       <c r="K55" s="3">
+        <v>1051.73</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0.98984264661495958</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0.97502879707164014</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>49</v>
+      </c>
+      <c r="B56" s="8">
+        <v>64</v>
+      </c>
+      <c r="C56" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D56" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="9">
+        <v>0.9984791666666667</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0.97741666666666671</v>
+      </c>
+      <c r="H56" s="9">
+        <v>725.00540767243706</v>
+      </c>
+      <c r="I56" s="9">
+        <v>924.35244409160077</v>
+      </c>
+      <c r="J56" s="8">
         <v>499</v>
       </c>
-      <c r="L55" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>109</v>
-      </c>
-      <c r="B56" s="3">
+      <c r="K56" s="8">
+        <v>1068.08</v>
+      </c>
+      <c r="L56" s="9">
+        <v>0.99850688490860118</v>
+      </c>
+      <c r="M56" s="9">
+        <v>0.97710964630619923</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>50</v>
+      </c>
+      <c r="B57" s="8">
         <v>64</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C57" s="8">
         <v>1E-4</v>
       </c>
-      <c r="D56" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="D57" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F56" s="3">
-        <v>0.97547916666666667</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0.96458333333333335</v>
-      </c>
-      <c r="H56" s="3">
-        <v>4298.5320101374482</v>
-      </c>
-      <c r="I56" s="3">
-        <v>1565.0503083125341</v>
-      </c>
-      <c r="K56" s="3">
-        <v>499</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>110</v>
-      </c>
-      <c r="B57" s="3">
-        <v>64</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0.97550000000000003</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0.96433333333333338</v>
-      </c>
-      <c r="H57" s="3">
-        <v>4275.1223874298294</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1551.433445487922</v>
-      </c>
-      <c r="K57" s="3">
-        <v>499</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F57" s="9">
+        <v>0.9996666666666667</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0.9780833333333333</v>
+      </c>
+      <c r="H57" s="9">
+        <v>452.20879784622679</v>
+      </c>
+      <c r="I57" s="9">
+        <v>899.59282896780712</v>
+      </c>
+      <c r="J57" s="8">
+        <v>260</v>
+      </c>
+      <c r="K57" s="8">
+        <v>607.72</v>
+      </c>
+      <c r="L57" s="9">
+        <v>0.99967653920272304</v>
+      </c>
+      <c r="M57" s="9">
+        <v>0.9777718321762876</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B58" s="3">
         <v>64</v>
@@ -5508,109 +5689,111 @@
       <c r="E58" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F58" s="3">
-        <v>0.97287500000000005</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0.96225000000000005</v>
-      </c>
-      <c r="H58" s="3">
-        <v>4745.3723974221066</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1657.4716014543901</v>
+      <c r="F58" s="4">
+        <v>0.98797916666666663</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0.97283333333333333</v>
+      </c>
+      <c r="H58" s="4">
+        <v>2337.910417688453</v>
+      </c>
+      <c r="I58" s="4">
+        <v>1079.4784864609121</v>
+      </c>
+      <c r="J58" s="3">
+        <v>499</v>
       </c>
       <c r="K58" s="3">
+        <v>1189.3800000000001</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0.98795165043991484</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0.97245765032796894</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>52</v>
+      </c>
+      <c r="B59" s="8">
+        <v>64</v>
+      </c>
+      <c r="C59" s="8">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="D59" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="9">
+        <v>0.99804166666666672</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0.97675000000000001</v>
+      </c>
+      <c r="H59" s="9">
+        <v>862.32162719974542</v>
+      </c>
+      <c r="I59" s="9">
+        <v>925.57819402717007</v>
+      </c>
+      <c r="J59" s="8">
         <v>499</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>112</v>
-      </c>
-      <c r="B59" s="3">
+      <c r="K59" s="8">
+        <v>1143.29</v>
+      </c>
+      <c r="L59" s="9">
+        <v>0.99805916882805157</v>
+      </c>
+      <c r="M59" s="9">
+        <v>0.97640699843296519</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>53</v>
+      </c>
+      <c r="B60" s="5">
         <v>64</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C60" s="5">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="D59" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="D60" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F59" s="3">
-        <v>0.97272916666666664</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0.96358333333333335</v>
-      </c>
-      <c r="H59" s="3">
-        <v>4707.3858516698092</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1641.96619999577</v>
-      </c>
-      <c r="K59" s="3">
-        <v>499</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>113</v>
-      </c>
-      <c r="B60" s="3">
-        <v>64</v>
-      </c>
-      <c r="C60" s="3">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0.97289583333333329</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0.96216666666666661</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4733.0693880676272</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1649.28611014542</v>
-      </c>
-      <c r="K60" s="3">
-        <v>499</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N60">
-        <f>AVERAGE(G52:G60)</f>
-        <v>0.96778703703703706</v>
-      </c>
-      <c r="O60">
-        <f>_xlfn.STDEV.S(G52:G60)</f>
-        <v>6.5488430794310793E-3</v>
-      </c>
-      <c r="P60">
-        <f>AVERAGE(I52:I60)</f>
-        <v>1420.8819162599725</v>
-      </c>
-      <c r="Q60">
-        <f>_xlfn.STDEV.S(I52:I60)</f>
-        <v>284.69785715401849</v>
+      <c r="F60" s="6">
+        <v>0.99941666666666662</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.97975000000000001</v>
+      </c>
+      <c r="H60" s="6">
+        <v>501.2297437142488</v>
+      </c>
+      <c r="I60" s="6">
+        <v>876.94903155554721</v>
+      </c>
+      <c r="J60" s="5">
+        <v>267</v>
+      </c>
+      <c r="K60" s="5">
+        <v>607.22</v>
+      </c>
+      <c r="L60" s="6">
+        <v>0.99942512799353067</v>
+      </c>
+      <c r="M60" s="6">
+        <v>0.97948839782573016</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/mini-batch/tuning.xlsx
+++ b/evaluation/mini-batch/tuning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falco\Desktop\NeuralNetwork-library\evaluation\mini-batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EC5A2A-0F2C-4579-9FC9-6F260D77D2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5AAA6A-9758-4941-B95F-881753409287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="128">
   <si>
     <t>id</t>
   </si>
@@ -249,6 +249,162 @@
   </si>
   <si>
     <t>607.22</t>
+  </si>
+  <si>
+    <t>acc_test</t>
+  </si>
+  <si>
+    <t>0.9681</t>
+  </si>
+  <si>
+    <t>0.9641</t>
+  </si>
+  <si>
+    <t>0.9548</t>
+  </si>
+  <si>
+    <t>0.9694</t>
+  </si>
+  <si>
+    <t>0.9713</t>
+  </si>
+  <si>
+    <t>0.9702</t>
+  </si>
+  <si>
+    <t>0.9689</t>
+  </si>
+  <si>
+    <t>0.9734</t>
+  </si>
+  <si>
+    <t>0.9708</t>
+  </si>
+  <si>
+    <t>0.9723</t>
+  </si>
+  <si>
+    <t>0.9685</t>
+  </si>
+  <si>
+    <t>0.9652</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.9722</t>
+  </si>
+  <si>
+    <t>0.9712</t>
+  </si>
+  <si>
+    <t>0.9686</t>
+  </si>
+  <si>
+    <t>0.9736</t>
+  </si>
+  <si>
+    <t>0.9698</t>
+  </si>
+  <si>
+    <t>0.9608</t>
+  </si>
+  <si>
+    <t>0.9334</t>
+  </si>
+  <si>
+    <t>0.9456</t>
+  </si>
+  <si>
+    <t>0.9735</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>0.9756</t>
+  </si>
+  <si>
+    <t>0.973</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>0.9781</t>
+  </si>
+  <si>
+    <t>0.9742</t>
+  </si>
+  <si>
+    <t>0.9744</t>
+  </si>
+  <si>
+    <t>0.9638</t>
+  </si>
+  <si>
+    <t>0.9733</t>
+  </si>
+  <si>
+    <t>0.9762</t>
+  </si>
+  <si>
+    <t>0.9763</t>
+  </si>
+  <si>
+    <t>0.9721</t>
+  </si>
+  <si>
+    <t>0.9758</t>
+  </si>
+  <si>
+    <t>0.9767</t>
+  </si>
+  <si>
+    <t>0.9567</t>
+  </si>
+  <si>
+    <t>0.9483</t>
+  </si>
+  <si>
+    <t>0.9332</t>
+  </si>
+  <si>
+    <t>0.9789</t>
+  </si>
+  <si>
+    <t>0.979</t>
+  </si>
+  <si>
+    <t>0.9751</t>
+  </si>
+  <si>
+    <t>0.9788</t>
+  </si>
+  <si>
+    <t>0.9783</t>
+  </si>
+  <si>
+    <t>0.9746</t>
+  </si>
+  <si>
+    <t>0.9613</t>
+  </si>
+  <si>
+    <t>0.9489</t>
+  </si>
+  <si>
+    <t>0.9761</t>
+  </si>
+  <si>
+    <t>0.9793</t>
+  </si>
+  <si>
+    <t>0.9741</t>
+  </si>
+  <si>
+    <t>0.9772</t>
   </si>
 </sst>
 </file>
@@ -3519,10 +3675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828703DB-C72E-4960-861F-4DABB1E0BE75}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3534,14 +3690,15 @@
     <col min="5" max="5" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3564,25 +3721,28 @@
         <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -3604,26 +3764,29 @@
       <c r="G2" s="4">
         <v>0.96875</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="4">
         <v>1364.7610363869401</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>1244.4642675519531</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>57</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>47.64</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>0.99452102263184039</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>0.96837438395425868</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3645,26 +3808,29 @@
       <c r="G3" s="4">
         <v>0.96199999999999997</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="4">
         <v>2656.9509883392561</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>1544.329360646298</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>25</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>30.23</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <v>0.98490271590426581</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>0.96149293883212472</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3686,26 +3852,29 @@
       <c r="G4" s="4">
         <v>0.95683333333333331</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="4">
         <v>4141.0212636413926</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>1792.459626427067</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>10</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>17.55</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>0.97396919425553852</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>0.95619626538844338</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3727,26 +3896,29 @@
       <c r="G5" s="4">
         <v>0.96891666666666665</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="4">
         <v>2902.6840843735872</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>1279.8147116945349</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>499</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>361.25</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>0.98495932138304099</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>0.9685692418631715</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3768,26 +3940,29 @@
       <c r="G6" s="4">
         <v>0.97075</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="4">
         <v>1551.7590045497061</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>1197.584804307086</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>476</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>346.53</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>0.99384697237353037</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>0.97036335221466974</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3809,26 +3984,29 @@
       <c r="G7" s="4">
         <v>0.97091666666666665</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="4">
         <v>1550.5060944583529</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>1234.688775036695</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>186</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>144.22</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>0.99395105446442211</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>0.97055362008499557</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3850,26 +4028,29 @@
       <c r="G8" s="4">
         <v>0.9664166666666667</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="4">
         <v>3168.318808456318</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>1330.5393576830679</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>499</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>361.34</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>0.98246611084534086</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>0.96596182535592967</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3891,26 +4072,29 @@
       <c r="G9" s="4">
         <v>0.97258333333333336</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="4">
         <v>1489.3696737313439</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>1170.4537298347741</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>499</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>325.14999999999998</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>0.99407096640592163</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>0.97223216808273549</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3932,26 +4116,32 @@
       <c r="G10" s="4">
         <v>0.97</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="4">
         <v>1534.945672651603</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>1212.6116977379199</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>208</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>144.41</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>0.99428450928382228</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>0.96961154851811759</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -3973,26 +4163,29 @@
       <c r="G12" s="4">
         <v>0.96958333333333335</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="4">
         <v>1342.175668959718</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>1179.5713256965471</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>52</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>48.49</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>0.99470219412163452</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>0.96916970203999886</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -4014,26 +4207,29 @@
       <c r="G13" s="4">
         <v>0.96766666666666667</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="4">
         <v>2128.9547442203452</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>1268.6858947677561</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>19</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>25.72</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>0.98848697653395323</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>0.96716718175508609</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -4055,26 +4251,29 @@
       <c r="G14" s="4">
         <v>0.96625000000000005</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="4">
         <v>2611.0152246774201</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>1329.0614011515579</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>17.489999999999998</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>0.98425199475339264</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>0.96580741960320116</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -4096,26 +4295,29 @@
       <c r="G15" s="4">
         <v>0.96825000000000006</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="4">
         <v>2933.6137148275052</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>1318.355546445938</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>499</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>365.12</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>0.98454861920553327</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>0.96787740246065435</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -4137,26 +4339,29 @@
       <c r="G16" s="4">
         <v>0.97016666666666662</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="4">
         <v>1428.939800950073</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>1216.426839235954</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>489</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <v>381.34</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>0.99472693185880734</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>0.96981916676163293</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -4178,26 +4383,29 @@
       <c r="G17" s="4">
         <v>0.9700833333333333</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="4">
         <v>1378.749418164708</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>1194.912470014719</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>204</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>162.01</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>0.99502765788534508</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>0.96967974093791898</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -4219,26 +4427,29 @@
       <c r="G18" s="4">
         <v>0.96675</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="4">
         <v>3178.4910358012748</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>1365.347771633614</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>499</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>365.75</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>0.98291255432628299</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>0.96639175515975995</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -4260,26 +4471,29 @@
       <c r="G19" s="4">
         <v>0.97258333333333336</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="4">
         <v>1533.014686199441</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>1134.524943384826</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>499</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>367.71</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>0.99379329451808829</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>0.97220622386116262</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -4301,26 +4515,32 @@
       <c r="G20" s="4">
         <v>0.96899999999999997</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="4">
         <v>1622.043779646943</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>1220.475218771232</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>160.41999999999999</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
         <v>0.99325992334210311</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <v>0.96854005621319439</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -4342,26 +4562,29 @@
       <c r="G22" s="4">
         <v>0.96</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="4">
         <v>2678.866654337553</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>1617.3687269470611</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>56</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>86.4</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>0.98473442926613131</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="4">
         <v>0.95941803517172575</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -4383,26 +4606,29 @@
       <c r="G23" s="4">
         <v>0.93266666666666664</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="4">
         <v>8605.9907871267042</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <v>3004.2319430681978</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>41</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>68.400000000000006</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="4">
         <v>0.94725117238350676</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N23" s="4">
         <v>0.93141174969044638</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -4424,26 +4650,29 @@
       <c r="G24" s="4">
         <v>0.94191666666666662</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="4">
         <v>5907.1564098114723</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <v>2678.4522213731661</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>50</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>77.510000000000005</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M24" s="4">
         <v>0.96335324144727108</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N24" s="4">
         <v>0.94089118401077365</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -4465,26 +4694,29 @@
       <c r="G25" s="4">
         <v>0.97191666666666665</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="4">
         <v>2293.030568538788</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>1115.8963252487999</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <v>499</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="3">
         <v>606.03</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="4">
         <v>0.98852934726125308</v>
       </c>
-      <c r="M25" s="4">
+      <c r="N25" s="4">
         <v>0.97152906756193202</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>22</v>
       </c>
@@ -4506,26 +4738,29 @@
       <c r="G26" s="9">
         <v>0.97675000000000001</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="9">
         <v>899.00038069346806</v>
       </c>
-      <c r="I26" s="9">
+      <c r="J26" s="9">
         <v>964.55652421783077</v>
       </c>
-      <c r="J26" s="8">
+      <c r="K26" s="8">
         <v>499</v>
       </c>
-      <c r="K26" s="8">
+      <c r="L26" s="8">
         <v>634.80999999999995</v>
       </c>
-      <c r="L26" s="9">
+      <c r="M26" s="9">
         <v>0.99801021497388798</v>
       </c>
-      <c r="M26" s="9">
+      <c r="N26" s="9">
         <v>0.97640775357407716</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>23</v>
       </c>
@@ -4547,26 +4782,29 @@
       <c r="G27" s="9">
         <v>0.97599999999999998</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="9">
         <v>741.00710340115131</v>
       </c>
-      <c r="I27" s="9">
+      <c r="J27" s="9">
         <v>988.92077033717828</v>
       </c>
-      <c r="J27" s="8">
+      <c r="K27" s="8">
         <v>227</v>
       </c>
-      <c r="K27" s="8">
+      <c r="L27" s="8">
         <v>320.02</v>
       </c>
-      <c r="L27" s="9">
+      <c r="M27" s="9">
         <v>0.99853874777303486</v>
       </c>
-      <c r="M27" s="9">
+      <c r="N27" s="9">
         <v>0.97567572080143616</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -4588,26 +4826,29 @@
       <c r="G28" s="4">
         <v>0.97150000000000003</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" s="4">
         <v>2611.1361219517512</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>1144.5713370331689</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <v>499</v>
       </c>
-      <c r="K28" s="3">
+      <c r="L28" s="3">
         <v>636.04999999999995</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M28" s="4">
         <v>0.98606493542710427</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N28" s="4">
         <v>0.97122830695547757</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -4629,26 +4870,29 @@
       <c r="G29" s="4">
         <v>0.97566666666666668</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="4">
         <v>1047.0323368043821</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="4">
         <v>1023.610290054893</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>499</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>680.01</v>
       </c>
-      <c r="L29" s="4">
+      <c r="M29" s="4">
         <v>0.99693018328210492</v>
       </c>
-      <c r="M29" s="4">
+      <c r="N29" s="4">
         <v>0.97535071265760109</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>26</v>
       </c>
@@ -4670,26 +4914,32 @@
       <c r="G30" s="9">
         <v>0.97541666666666671</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="9">
         <v>834.9615726310268</v>
       </c>
-      <c r="I30" s="9">
+      <c r="J30" s="9">
         <v>1003.246929165117</v>
       </c>
-      <c r="J30" s="8">
+      <c r="K30" s="8">
         <v>232</v>
       </c>
-      <c r="K30" s="8">
+      <c r="L30" s="8">
         <v>326.45</v>
       </c>
-      <c r="L30" s="9">
+      <c r="M30" s="9">
         <v>0.99813096273983282</v>
       </c>
-      <c r="M30" s="9">
+      <c r="N30" s="9">
         <v>0.97503535049730827</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>27</v>
       </c>
@@ -4711,26 +4961,29 @@
       <c r="G32" s="9">
         <v>0.97399999999999998</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="9">
         <v>768.82798866942801</v>
       </c>
-      <c r="I32" s="9">
+      <c r="J32" s="9">
         <v>1053.0041337530561</v>
       </c>
-      <c r="J32" s="8">
+      <c r="K32" s="8">
         <v>57</v>
       </c>
-      <c r="K32" s="8">
+      <c r="L32" s="8">
         <v>79.040000000000006</v>
       </c>
-      <c r="L32" s="9">
+      <c r="M32" s="9">
         <v>0.99821435903375</v>
       </c>
-      <c r="M32" s="9">
+      <c r="N32" s="9">
         <v>0.9736578785909904</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>28</v>
       </c>
@@ -4752,26 +5005,29 @@
       <c r="G33" s="9">
         <v>0.97199999999999998</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" s="9">
         <v>697.90523879157843</v>
       </c>
-      <c r="I33" s="9">
+      <c r="J33" s="9">
         <v>1170.731988460157</v>
       </c>
-      <c r="J33" s="8">
+      <c r="K33" s="8">
         <v>39</v>
       </c>
-      <c r="K33" s="8">
+      <c r="L33" s="8">
         <v>62.75</v>
       </c>
-      <c r="L33" s="9">
+      <c r="M33" s="9">
         <v>0.99800887524252158</v>
       </c>
-      <c r="M33" s="9">
+      <c r="N33" s="9">
         <v>0.97162291707954473</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>29</v>
       </c>
@@ -4793,26 +5049,29 @@
       <c r="G34" s="4">
         <v>0.96391666666666664</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="4">
         <v>2950.0776996779459</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>1506.302118777081</v>
       </c>
-      <c r="J34" s="3">
+      <c r="K34" s="3">
         <v>8</v>
       </c>
-      <c r="K34" s="3">
+      <c r="L34" s="3">
         <v>31.81</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>0.98156740924875463</v>
       </c>
-      <c r="M34" s="4">
+      <c r="N34" s="4">
         <v>0.96340804028406046</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>30</v>
       </c>
@@ -4834,26 +5093,29 @@
       <c r="G35" s="4">
         <v>0.97291666666666665</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="4">
         <v>2309.040186149331</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>1096.392641711589</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>499</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>641.79</v>
       </c>
-      <c r="L35" s="4">
+      <c r="M35" s="4">
         <v>0.98804086829123339</v>
       </c>
-      <c r="M35" s="4">
+      <c r="N35" s="4">
         <v>0.97257133466844414</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>31</v>
       </c>
@@ -4875,26 +5137,29 @@
       <c r="G36" s="9">
         <v>0.97441666666666671</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="9">
         <v>919.51213414222104</v>
       </c>
-      <c r="I36" s="9">
+      <c r="J36" s="9">
         <v>1055.8791471870461</v>
       </c>
-      <c r="J36" s="8">
+      <c r="K36" s="8">
         <v>499</v>
       </c>
-      <c r="K36" s="8">
+      <c r="L36" s="8">
         <v>711.84</v>
       </c>
-      <c r="L36" s="9">
+      <c r="M36" s="9">
         <v>0.99757015498109447</v>
       </c>
-      <c r="M36" s="9">
+      <c r="N36" s="9">
         <v>0.97405523413573147</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>32</v>
       </c>
@@ -4916,26 +5181,29 @@
       <c r="G37" s="9">
         <v>0.97641666666666671</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" s="9">
         <v>620.22688246933092</v>
       </c>
-      <c r="I37" s="9">
+      <c r="J37" s="9">
         <v>964.22745312286656</v>
       </c>
-      <c r="J37" s="8">
+      <c r="K37" s="8">
         <v>248</v>
       </c>
-      <c r="K37" s="8">
+      <c r="L37" s="8">
         <v>285.58999999999997</v>
       </c>
-      <c r="L37" s="9">
+      <c r="M37" s="9">
         <v>0.99926570798194925</v>
       </c>
-      <c r="M37" s="9">
+      <c r="N37" s="9">
         <v>0.97617482456936067</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>33</v>
       </c>
@@ -4957,26 +5225,29 @@
       <c r="G38" s="4">
         <v>0.97150000000000003</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="4">
         <v>2651.660041885717</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <v>1157.566703512377</v>
       </c>
-      <c r="J38" s="3">
+      <c r="K38" s="3">
         <v>499</v>
       </c>
-      <c r="K38" s="3">
+      <c r="L38" s="3">
         <v>530.46</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M38" s="4">
         <v>0.98578601022050982</v>
       </c>
-      <c r="M38" s="4">
+      <c r="N38" s="4">
         <v>0.97118150154888405</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>34</v>
       </c>
@@ -4998,26 +5269,29 @@
       <c r="G39" s="4">
         <v>0.97466666666666668</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="4">
         <v>1054.7422025160761</v>
       </c>
-      <c r="I39" s="4">
+      <c r="J39" s="4">
         <v>1021.468012653555</v>
       </c>
-      <c r="J39" s="3">
+      <c r="K39" s="3">
         <v>499</v>
       </c>
-      <c r="K39" s="3">
+      <c r="L39" s="3">
         <v>526.19000000000005</v>
       </c>
-      <c r="L39" s="4">
+      <c r="M39" s="4">
         <v>0.99719064174902816</v>
       </c>
-      <c r="M39" s="4">
+      <c r="N39" s="4">
         <v>0.97434081394088889</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>35</v>
       </c>
@@ -5039,26 +5313,32 @@
       <c r="G40" s="9">
         <v>0.9750833333333333</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40" s="9">
         <v>668.53247656123858</v>
       </c>
-      <c r="I40" s="9">
+      <c r="J40" s="9">
         <v>969.99421896659521</v>
       </c>
-      <c r="J40" s="8">
+      <c r="K40" s="8">
         <v>264</v>
       </c>
-      <c r="K40" s="8">
+      <c r="L40" s="8">
         <v>295.19</v>
       </c>
-      <c r="L40" s="9">
+      <c r="M40" s="9">
         <v>0.99891011744235669</v>
       </c>
-      <c r="M40" s="9">
+      <c r="N40" s="9">
         <v>0.9747257429548325</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>36</v>
       </c>
@@ -5080,26 +5360,29 @@
       <c r="G42" s="4">
         <v>0.95591666666666664</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" s="4">
         <v>3951.2206101245069</v>
       </c>
-      <c r="I42" s="4">
+      <c r="J42" s="4">
         <v>1864.080920129094</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>51</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>130.06</v>
       </c>
-      <c r="L42" s="4">
+      <c r="M42" s="4">
         <v>0.97676385627946138</v>
       </c>
-      <c r="M42" s="4">
+      <c r="N42" s="4">
         <v>0.95531570423108259</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>37</v>
       </c>
@@ -5121,26 +5404,29 @@
       <c r="G43" s="4">
         <v>0.94658333333333333</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I43" s="4">
         <v>5254.5705063850983</v>
       </c>
-      <c r="I43" s="4">
+      <c r="J43" s="4">
         <v>2256.6947783550991</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>33</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>95.01</v>
       </c>
-      <c r="L43" s="4">
+      <c r="M43" s="4">
         <v>0.96695429869572469</v>
       </c>
-      <c r="M43" s="4">
+      <c r="N43" s="4">
         <v>0.94578109621730655</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>38</v>
       </c>
@@ -5162,26 +5448,29 @@
       <c r="G44" s="4">
         <v>0.93441666666666667</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" t="s">
+        <v>115</v>
+      </c>
+      <c r="I44" s="4">
         <v>7819.5873245762923</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>2972.1358291751508</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>31</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>88.85</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>0.94860031506645615</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N44" s="4">
         <v>0.93341793443731935</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>39</v>
       </c>
@@ -5203,26 +5492,29 @@
       <c r="G45" s="4">
         <v>0.97333333333333338</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" t="s">
+        <v>102</v>
+      </c>
+      <c r="I45" s="4">
         <v>2083.4754658404509</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>1057.9359921169939</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>499</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>956.05</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>0.98965386686466172</v>
       </c>
-      <c r="M45" s="4">
+      <c r="N45" s="4">
         <v>0.97301884390315174</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>40</v>
       </c>
@@ -5244,26 +5536,29 @@
       <c r="G46" s="9">
         <v>0.97916666666666663</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" t="s">
+        <v>116</v>
+      </c>
+      <c r="I46" s="9">
         <v>708.386394590539</v>
       </c>
-      <c r="I46" s="9">
+      <c r="J46" s="9">
         <v>871.65542108982368</v>
       </c>
-      <c r="J46" s="8">
+      <c r="K46" s="8">
         <v>499</v>
       </c>
-      <c r="K46" s="8">
+      <c r="L46" s="8">
         <v>1007.75</v>
       </c>
-      <c r="L46" s="9">
+      <c r="M46" s="9">
         <v>0.99864473449775848</v>
       </c>
-      <c r="M46" s="9">
+      <c r="N46" s="9">
         <v>0.97888630026346701</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>41</v>
       </c>
@@ -5285,26 +5580,29 @@
       <c r="G47" s="9">
         <v>0.97858333333333336</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" s="9">
         <v>600.53226747486633</v>
       </c>
-      <c r="I47" s="9">
+      <c r="J47" s="9">
         <v>900.71893835720493</v>
       </c>
-      <c r="J47" s="8">
+      <c r="K47" s="8">
         <v>225</v>
       </c>
-      <c r="K47" s="8">
+      <c r="L47" s="8">
         <v>500.12</v>
       </c>
-      <c r="L47" s="9">
+      <c r="M47" s="9">
         <v>0.99909491212118273</v>
       </c>
-      <c r="M47" s="9">
+      <c r="N47" s="9">
         <v>0.9782783915295834</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>42</v>
       </c>
@@ -5326,26 +5624,29 @@
       <c r="G48" s="4">
         <v>0.97441666666666671</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" t="s">
+        <v>118</v>
+      </c>
+      <c r="I48" s="4">
         <v>2318.3610464115231</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J48" s="4">
         <v>1076.0916257085889</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>499</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>983.78</v>
       </c>
-      <c r="L48" s="4">
+      <c r="M48" s="4">
         <v>0.98793887001394665</v>
       </c>
-      <c r="M48" s="4">
+      <c r="N48" s="4">
         <v>0.97410675068077912</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43</v>
       </c>
@@ -5367,26 +5668,29 @@
       <c r="G49" s="4">
         <v>0.97733333333333339</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" t="s">
+        <v>119</v>
+      </c>
+      <c r="I49" s="4">
         <v>845.53384268728803</v>
       </c>
-      <c r="I49" s="4">
+      <c r="J49" s="4">
         <v>930.94303157462343</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>499</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>957.88</v>
       </c>
-      <c r="L49" s="4">
+      <c r="M49" s="4">
         <v>0.99815498826833959</v>
       </c>
-      <c r="M49" s="4">
+      <c r="N49" s="4">
         <v>0.9769964075219072</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>44</v>
       </c>
@@ -5408,26 +5712,32 @@
       <c r="G50" s="9">
         <v>0.97633333333333339</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" t="s">
+        <v>120</v>
+      </c>
+      <c r="I50" s="9">
         <v>631.07644232831854</v>
       </c>
-      <c r="I50" s="9">
+      <c r="J50" s="9">
         <v>931.95065830064198</v>
       </c>
-      <c r="J50" s="8">
+      <c r="K50" s="8">
         <v>237</v>
       </c>
-      <c r="K50" s="8">
+      <c r="L50" s="8">
         <v>487.33</v>
       </c>
-      <c r="L50" s="9">
+      <c r="M50" s="9">
         <v>0.9991634096498746</v>
       </c>
-      <c r="M50" s="9">
+      <c r="N50" s="9">
         <v>0.97599642065230152</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>45</v>
       </c>
@@ -5449,26 +5759,29 @@
       <c r="G52" s="4">
         <v>0.9730833333333333</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" t="s">
+        <v>121</v>
+      </c>
+      <c r="I52" s="4">
         <v>1210.3206061866649</v>
       </c>
-      <c r="I52" s="4">
+      <c r="J52" s="4">
         <v>1105.1222612870581</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>51</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>140.80000000000001</v>
       </c>
-      <c r="L52" s="4">
+      <c r="M52" s="4">
         <v>0.99542553580281246</v>
       </c>
-      <c r="M52" s="4">
+      <c r="N52" s="4">
         <v>0.97271751845960819</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>46</v>
       </c>
@@ -5490,26 +5803,29 @@
       <c r="G53" s="4">
         <v>0.95908333333333329</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53" s="4">
         <v>3122.055915272847</v>
       </c>
-      <c r="I53" s="4">
+      <c r="J53" s="4">
         <v>1657.3422978002579</v>
       </c>
-      <c r="J53" s="3">
+      <c r="K53" s="3">
         <v>25</v>
       </c>
-      <c r="K53" s="3">
+      <c r="L53" s="3">
         <v>87.23</v>
       </c>
-      <c r="L53" s="4">
+      <c r="M53" s="4">
         <v>0.98088860112605514</v>
       </c>
-      <c r="M53" s="4">
+      <c r="N53" s="4">
         <v>0.95843343567635308</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>47</v>
       </c>
@@ -5531,26 +5847,29 @@
       <c r="G54" s="4">
         <v>0.94191666666666662</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" t="s">
+        <v>123</v>
+      </c>
+      <c r="I54" s="4">
         <v>5944.1383398488679</v>
       </c>
-      <c r="I54" s="4">
+      <c r="J54" s="4">
         <v>2371.4601350310431</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>68.84</v>
       </c>
-      <c r="L54" s="4">
+      <c r="M54" s="4">
         <v>0.96148411835306946</v>
       </c>
-      <c r="M54" s="4">
+      <c r="N54" s="4">
         <v>0.94109864898374584</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>48</v>
       </c>
@@ -5572,26 +5891,29 @@
       <c r="G55" s="4">
         <v>0.97533333333333339</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" t="s">
+        <v>124</v>
+      </c>
+      <c r="I55" s="4">
         <v>2069.8437592195942</v>
       </c>
-      <c r="I55" s="4">
+      <c r="J55" s="4">
         <v>1036.8811347361179</v>
       </c>
-      <c r="J55" s="3">
+      <c r="K55" s="3">
         <v>499</v>
       </c>
-      <c r="K55" s="3">
+      <c r="L55" s="3">
         <v>1051.73</v>
       </c>
-      <c r="L55" s="4">
+      <c r="M55" s="4">
         <v>0.98984264661495958</v>
       </c>
-      <c r="M55" s="4">
+      <c r="N55" s="4">
         <v>0.97502879707164014</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>49</v>
       </c>
@@ -5613,26 +5935,29 @@
       <c r="G56" s="9">
         <v>0.97741666666666671</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" t="s">
+        <v>119</v>
+      </c>
+      <c r="I56" s="9">
         <v>725.00540767243706</v>
       </c>
-      <c r="I56" s="9">
+      <c r="J56" s="9">
         <v>924.35244409160077</v>
       </c>
-      <c r="J56" s="8">
+      <c r="K56" s="8">
         <v>499</v>
       </c>
-      <c r="K56" s="8">
+      <c r="L56" s="8">
         <v>1068.08</v>
       </c>
-      <c r="L56" s="9">
+      <c r="M56" s="9">
         <v>0.99850688490860118</v>
       </c>
-      <c r="M56" s="9">
+      <c r="N56" s="9">
         <v>0.97710964630619923</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>50</v>
       </c>
@@ -5654,26 +5979,29 @@
       <c r="G57" s="9">
         <v>0.9780833333333333</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" t="s">
+        <v>125</v>
+      </c>
+      <c r="I57" s="9">
         <v>452.20879784622679</v>
       </c>
-      <c r="I57" s="9">
+      <c r="J57" s="9">
         <v>899.59282896780712</v>
       </c>
-      <c r="J57" s="8">
+      <c r="K57" s="8">
         <v>260</v>
       </c>
-      <c r="K57" s="8">
+      <c r="L57" s="8">
         <v>607.72</v>
       </c>
-      <c r="L57" s="9">
+      <c r="M57" s="9">
         <v>0.99967653920272304</v>
       </c>
-      <c r="M57" s="9">
+      <c r="N57" s="9">
         <v>0.9777718321762876</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>51</v>
       </c>
@@ -5695,26 +6023,29 @@
       <c r="G58" s="4">
         <v>0.97283333333333333</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" t="s">
+        <v>126</v>
+      </c>
+      <c r="I58" s="4">
         <v>2337.910417688453</v>
       </c>
-      <c r="I58" s="4">
+      <c r="J58" s="4">
         <v>1079.4784864609121</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>499</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1189.3800000000001</v>
       </c>
-      <c r="L58" s="4">
+      <c r="M58" s="4">
         <v>0.98795165043991484</v>
       </c>
-      <c r="M58" s="4">
+      <c r="N58" s="4">
         <v>0.97245765032796894</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>52</v>
       </c>
@@ -5736,26 +6067,29 @@
       <c r="G59" s="9">
         <v>0.97675000000000001</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" t="s">
+        <v>127</v>
+      </c>
+      <c r="I59" s="9">
         <v>862.32162719974542</v>
       </c>
-      <c r="I59" s="9">
+      <c r="J59" s="9">
         <v>925.57819402717007</v>
       </c>
-      <c r="J59" s="8">
+      <c r="K59" s="8">
         <v>499</v>
       </c>
-      <c r="K59" s="8">
+      <c r="L59" s="8">
         <v>1143.29</v>
       </c>
-      <c r="L59" s="9">
+      <c r="M59" s="9">
         <v>0.99805916882805157</v>
       </c>
-      <c r="M59" s="9">
+      <c r="N59" s="9">
         <v>0.97640699843296519</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>53</v>
       </c>
@@ -5777,24 +6111,42 @@
       <c r="G60" s="6">
         <v>0.97975000000000001</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" t="s">
+        <v>119</v>
+      </c>
+      <c r="I60" s="6">
         <v>501.2297437142488</v>
       </c>
-      <c r="I60" s="6">
+      <c r="J60" s="6">
         <v>876.94903155554721</v>
       </c>
-      <c r="J60" s="5">
+      <c r="K60" s="5">
         <v>267</v>
       </c>
-      <c r="K60" s="5">
+      <c r="L60" s="5">
         <v>607.22</v>
       </c>
-      <c r="L60" s="6">
+      <c r="M60" s="6">
         <v>0.99942512799353067</v>
       </c>
-      <c r="M60" s="6">
+      <c r="N60" s="6">
         <v>0.97948839782573016</v>
       </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H61"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H63"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H64"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
